--- a/corre_ing_exp-censo_casen/TIPO_HOGAR_urbano.xlsx
+++ b/corre_ing_exp-censo_casen/TIPO_HOGAR_urbano.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,25 +365,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Hogar en vivienda particular</t>
+          <t>Hogar unipersonal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vivienda colectiva (no es hogar)</t>
+          <t>Hogar nuclear monoparental</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operativo personas en tránsito (no es hogar)</t>
+          <t xml:space="preserve">Hogar nuclear biparental sin hijos </t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operativo calle (no es hogar)</t>
+          <t>Hogar nuclear biparental con hijos</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Hogar compuesto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hogar extenso</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hogar sin núcleo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ingresos_expandidos</t>
         </is>
@@ -396,18 +411,27 @@
         </is>
       </c>
       <c r="B2">
-        <v>59435</v>
+        <v>11897</v>
       </c>
       <c r="C2">
-        <v>236</v>
+        <v>7146</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7045</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>15188</v>
       </c>
       <c r="F2">
+        <v>1924</v>
+      </c>
+      <c r="G2">
+        <v>12244</v>
+      </c>
+      <c r="H2">
+        <v>3991</v>
+      </c>
+      <c r="I2">
         <v>71930106512.96095</v>
       </c>
     </row>
@@ -418,15 +442,27 @@
         </is>
       </c>
       <c r="B3">
-        <v>29652</v>
+        <v>4028</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>4300</v>
+      </c>
+      <c r="D3">
+        <v>2440</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9205</v>
       </c>
       <c r="F3">
+        <v>970</v>
+      </c>
+      <c r="G3">
+        <v>7176</v>
+      </c>
+      <c r="H3">
+        <v>1533</v>
+      </c>
+      <c r="I3">
         <v>33766585495.62615</v>
       </c>
     </row>
@@ -437,15 +473,27 @@
         </is>
       </c>
       <c r="B4">
-        <v>2829</v>
+        <v>579</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>438</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>297</v>
+      </c>
+      <c r="E4">
+        <v>785</v>
       </c>
       <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>540</v>
+      </c>
+      <c r="H4">
+        <v>130</v>
+      </c>
+      <c r="I4">
         <v>4966851883.206897</v>
       </c>
     </row>
@@ -456,10 +504,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>358</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>58</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -469,12 +532,27 @@
         </is>
       </c>
       <c r="B6">
-        <v>1313</v>
+        <v>309</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>165</v>
+      </c>
+      <c r="D6">
+        <v>179</v>
+      </c>
+      <c r="E6">
+        <v>287</v>
       </c>
       <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>248</v>
+      </c>
+      <c r="H6">
+        <v>86</v>
+      </c>
+      <c r="I6">
         <v>3068247619.39394</v>
       </c>
     </row>
@@ -485,18 +563,27 @@
         </is>
       </c>
       <c r="B7">
-        <v>105521</v>
+        <v>17351</v>
       </c>
       <c r="C7">
-        <v>164</v>
+        <v>12534</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>11166</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>28432</v>
       </c>
       <c r="F7">
+        <v>3829</v>
+      </c>
+      <c r="G7">
+        <v>24265</v>
+      </c>
+      <c r="H7">
+        <v>7944</v>
+      </c>
+      <c r="I7">
         <v>133249367039.0582</v>
       </c>
     </row>
@@ -507,15 +594,27 @@
         </is>
       </c>
       <c r="B8">
-        <v>3292</v>
+        <v>680</v>
       </c>
       <c r="C8">
-        <v>234</v>
+        <v>356</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="E8">
+        <v>794</v>
       </c>
       <c r="F8">
+        <v>161</v>
+      </c>
+      <c r="G8">
+        <v>756</v>
+      </c>
+      <c r="H8">
+        <v>236</v>
+      </c>
+      <c r="I8">
         <v>4979702301.778846</v>
       </c>
     </row>
@@ -526,18 +625,27 @@
         </is>
       </c>
       <c r="B9">
-        <v>3317</v>
+        <v>643</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>781</v>
       </c>
       <c r="F9">
+        <v>115</v>
+      </c>
+      <c r="G9">
+        <v>805</v>
+      </c>
+      <c r="H9">
+        <v>249</v>
+      </c>
+      <c r="I9">
         <v>5109282942.070588</v>
       </c>
     </row>
@@ -548,18 +656,27 @@
         </is>
       </c>
       <c r="B10">
-        <v>47501</v>
+        <v>8967</v>
       </c>
       <c r="C10">
-        <v>332</v>
+        <v>5861</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5168</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>12843</v>
       </c>
       <c r="F10">
+        <v>1300</v>
+      </c>
+      <c r="G10">
+        <v>10222</v>
+      </c>
+      <c r="H10">
+        <v>3140</v>
+      </c>
+      <c r="I10">
         <v>71981127234.88228</v>
       </c>
     </row>
@@ -570,18 +687,27 @@
         </is>
       </c>
       <c r="B11">
-        <v>1624</v>
+        <v>498</v>
       </c>
       <c r="C11">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="F11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>202</v>
+      </c>
+      <c r="H11">
+        <v>166</v>
+      </c>
+      <c r="I11">
         <v>4869699463.596639</v>
       </c>
     </row>
@@ -592,18 +718,27 @@
         </is>
       </c>
       <c r="B12">
-        <v>7780</v>
+        <v>1535</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>1073</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>860</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1897</v>
       </c>
       <c r="F12">
+        <v>169</v>
+      </c>
+      <c r="G12">
+        <v>1712</v>
+      </c>
+      <c r="H12">
+        <v>534</v>
+      </c>
+      <c r="I12">
         <v>7207910819.200001</v>
       </c>
     </row>
@@ -614,12 +749,27 @@
         </is>
       </c>
       <c r="B13">
-        <v>1395</v>
+        <v>325</v>
       </c>
       <c r="C13">
-        <v>84</v>
+        <v>177</v>
+      </c>
+      <c r="D13">
+        <v>168</v>
+      </c>
+      <c r="E13">
+        <v>369</v>
       </c>
       <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>263</v>
+      </c>
+      <c r="H13">
+        <v>63</v>
+      </c>
+      <c r="I13">
         <v>3084818966.444444</v>
       </c>
     </row>
@@ -630,15 +780,27 @@
         </is>
       </c>
       <c r="B14">
-        <v>45919</v>
+        <v>7081</v>
       </c>
       <c r="C14">
-        <v>106</v>
+        <v>5829</v>
+      </c>
+      <c r="D14">
+        <v>5174</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>14321</v>
       </c>
       <c r="F14">
+        <v>960</v>
+      </c>
+      <c r="G14">
+        <v>9922</v>
+      </c>
+      <c r="H14">
+        <v>2632</v>
+      </c>
+      <c r="I14">
         <v>52819016037.12282</v>
       </c>
     </row>
@@ -649,15 +811,27 @@
         </is>
       </c>
       <c r="B15">
-        <v>5007</v>
+        <v>1004</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>677</v>
+      </c>
+      <c r="D15">
+        <v>591</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>1212</v>
       </c>
       <c r="F15">
+        <v>133</v>
+      </c>
+      <c r="G15">
+        <v>1080</v>
+      </c>
+      <c r="H15">
+        <v>310</v>
+      </c>
+      <c r="I15">
         <v>5628052276.023623</v>
       </c>
     </row>
@@ -668,15 +842,27 @@
         </is>
       </c>
       <c r="B16">
-        <v>2955</v>
+        <v>460</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>377</v>
+      </c>
+      <c r="D16">
+        <v>297</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>939</v>
       </c>
       <c r="F16">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>686</v>
+      </c>
+      <c r="H16">
+        <v>144</v>
+      </c>
+      <c r="I16">
         <v>4671058718.055119</v>
       </c>
     </row>
@@ -687,12 +873,27 @@
         </is>
       </c>
       <c r="B17">
-        <v>3337</v>
+        <v>603</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>437</v>
+      </c>
+      <c r="D17">
+        <v>398</v>
+      </c>
+      <c r="E17">
+        <v>920</v>
       </c>
       <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>734</v>
+      </c>
+      <c r="H17">
+        <v>205</v>
+      </c>
+      <c r="I17">
         <v>3499391195.546219</v>
       </c>
     </row>
@@ -703,12 +904,27 @@
         </is>
       </c>
       <c r="B18">
-        <v>4345</v>
+        <v>975</v>
       </c>
       <c r="C18">
-        <v>96</v>
+        <v>524</v>
+      </c>
+      <c r="D18">
+        <v>540</v>
+      </c>
+      <c r="E18">
+        <v>1384</v>
       </c>
       <c r="F18">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>619</v>
+      </c>
+      <c r="H18">
+        <v>251</v>
+      </c>
+      <c r="I18">
         <v>4895805596.073299</v>
       </c>
     </row>
@@ -719,18 +935,27 @@
         </is>
       </c>
       <c r="B19">
-        <v>14292</v>
+        <v>2569</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>2042</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1555</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3302</v>
       </c>
       <c r="F19">
+        <v>351</v>
+      </c>
+      <c r="G19">
+        <v>3424</v>
+      </c>
+      <c r="H19">
+        <v>1049</v>
+      </c>
+      <c r="I19">
         <v>16404810756.33491</v>
       </c>
     </row>
@@ -741,12 +966,27 @@
         </is>
       </c>
       <c r="B20">
-        <v>1432</v>
+        <v>282</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>136</v>
+      </c>
+      <c r="E20">
+        <v>320</v>
       </c>
       <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>356</v>
+      </c>
+      <c r="H20">
+        <v>90</v>
+      </c>
+      <c r="I20">
         <v>2035200054.303031</v>
       </c>
     </row>
@@ -757,18 +997,27 @@
         </is>
       </c>
       <c r="B21">
-        <v>2893</v>
+        <v>620</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>387</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>722</v>
       </c>
       <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>604</v>
+      </c>
+      <c r="H21">
+        <v>174</v>
+      </c>
+      <c r="I21">
         <v>3424422749.589041</v>
       </c>
     </row>
@@ -779,15 +1028,27 @@
         </is>
       </c>
       <c r="B22">
-        <v>63584</v>
+        <v>10843</v>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>9560</v>
+      </c>
+      <c r="D22">
+        <v>7167</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>16323</v>
       </c>
       <c r="F22">
+        <v>1879</v>
+      </c>
+      <c r="G22">
+        <v>12962</v>
+      </c>
+      <c r="H22">
+        <v>4850</v>
+      </c>
+      <c r="I22">
         <v>61749247281.99611</v>
       </c>
     </row>
@@ -798,18 +1059,27 @@
         </is>
       </c>
       <c r="B23">
-        <v>65051</v>
+        <v>9704</v>
       </c>
       <c r="C23">
-        <v>156</v>
+        <v>9459</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7048</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>17891</v>
       </c>
       <c r="F23">
+        <v>2051</v>
+      </c>
+      <c r="G23">
+        <v>14790</v>
+      </c>
+      <c r="H23">
+        <v>4108</v>
+      </c>
+      <c r="I23">
         <v>61277269093.46808</v>
       </c>
     </row>
@@ -820,12 +1090,27 @@
         </is>
       </c>
       <c r="B24">
-        <v>3133</v>
+        <v>574</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>466</v>
+      </c>
+      <c r="D24">
+        <v>323</v>
+      </c>
+      <c r="E24">
+        <v>813</v>
       </c>
       <c r="F24">
+        <v>62</v>
+      </c>
+      <c r="G24">
+        <v>721</v>
+      </c>
+      <c r="H24">
+        <v>174</v>
+      </c>
+      <c r="I24">
         <v>2855312920.114286</v>
       </c>
     </row>
@@ -836,12 +1121,27 @@
         </is>
       </c>
       <c r="B25">
-        <v>396</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>106</v>
       </c>
       <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>79</v>
+      </c>
+      <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="I25">
         <v>908664019.3495146</v>
       </c>
     </row>
@@ -852,12 +1152,27 @@
         </is>
       </c>
       <c r="B26">
-        <v>5471</v>
+        <v>1023</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>880</v>
+      </c>
+      <c r="D26">
+        <v>555</v>
+      </c>
+      <c r="E26">
+        <v>1465</v>
       </c>
       <c r="F26">
+        <v>139</v>
+      </c>
+      <c r="G26">
+        <v>1090</v>
+      </c>
+      <c r="H26">
+        <v>319</v>
+      </c>
+      <c r="I26">
         <v>7058750372.576087</v>
       </c>
     </row>
@@ -868,12 +1183,27 @@
         </is>
       </c>
       <c r="B27">
-        <v>6862</v>
+        <v>1336</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>1070</v>
+      </c>
+      <c r="D27">
+        <v>750</v>
+      </c>
+      <c r="E27">
+        <v>1667</v>
       </c>
       <c r="F27">
+        <v>209</v>
+      </c>
+      <c r="G27">
+        <v>1428</v>
+      </c>
+      <c r="H27">
+        <v>402</v>
+      </c>
+      <c r="I27">
         <v>8703433491.268818</v>
       </c>
     </row>
@@ -884,12 +1214,27 @@
         </is>
       </c>
       <c r="B28">
-        <v>711</v>
+        <v>182</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>88</v>
+      </c>
+      <c r="E28">
+        <v>173</v>
       </c>
       <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>107</v>
+      </c>
+      <c r="H28">
+        <v>41</v>
+      </c>
+      <c r="I28">
         <v>2122281843.75</v>
       </c>
     </row>
@@ -900,15 +1245,27 @@
         </is>
       </c>
       <c r="B29">
-        <v>5835</v>
+        <v>1318</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>825</v>
+      </c>
+      <c r="D29">
+        <v>786</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>1325</v>
       </c>
       <c r="F29">
+        <v>137</v>
+      </c>
+      <c r="G29">
+        <v>1046</v>
+      </c>
+      <c r="H29">
+        <v>398</v>
+      </c>
+      <c r="I29">
         <v>6098444925.615385</v>
       </c>
     </row>
@@ -919,15 +1276,27 @@
         </is>
       </c>
       <c r="B30">
-        <v>5166</v>
+        <v>997</v>
       </c>
       <c r="C30">
-        <v>69</v>
+        <v>739</v>
+      </c>
+      <c r="D30">
+        <v>545</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>1341</v>
       </c>
       <c r="F30">
+        <v>148</v>
+      </c>
+      <c r="G30">
+        <v>1047</v>
+      </c>
+      <c r="H30">
+        <v>349</v>
+      </c>
+      <c r="I30">
         <v>7690585032.154762</v>
       </c>
     </row>
@@ -938,18 +1307,27 @@
         </is>
       </c>
       <c r="B31">
-        <v>27402</v>
+        <v>4668</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>4543</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2769</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>6643</v>
       </c>
       <c r="F31">
+        <v>664</v>
+      </c>
+      <c r="G31">
+        <v>6341</v>
+      </c>
+      <c r="H31">
+        <v>1774</v>
+      </c>
+      <c r="I31">
         <v>31197719080.43636</v>
       </c>
     </row>
@@ -960,12 +1338,27 @@
         </is>
       </c>
       <c r="B32">
-        <v>2132</v>
+        <v>536</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>337</v>
+      </c>
+      <c r="D32">
+        <v>239</v>
+      </c>
+      <c r="E32">
+        <v>433</v>
       </c>
       <c r="F32">
+        <v>27</v>
+      </c>
+      <c r="G32">
+        <v>414</v>
+      </c>
+      <c r="H32">
+        <v>146</v>
+      </c>
+      <c r="I32">
         <v>3124505460.143885</v>
       </c>
     </row>
@@ -976,12 +1369,27 @@
         </is>
       </c>
       <c r="B33">
-        <v>4923</v>
+        <v>913</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>849</v>
+      </c>
+      <c r="D33">
+        <v>506</v>
+      </c>
+      <c r="E33">
+        <v>1299</v>
       </c>
       <c r="F33">
+        <v>117</v>
+      </c>
+      <c r="G33">
+        <v>981</v>
+      </c>
+      <c r="H33">
+        <v>258</v>
+      </c>
+      <c r="I33">
         <v>6930326683.601563</v>
       </c>
     </row>
@@ -992,15 +1400,27 @@
         </is>
       </c>
       <c r="B34">
-        <v>1937</v>
+        <v>392</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>353</v>
+      </c>
+      <c r="D34">
+        <v>202</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="F34">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>358</v>
+      </c>
+      <c r="H34">
+        <v>92</v>
+      </c>
+      <c r="I34">
         <v>2328107498.275862</v>
       </c>
     </row>
@@ -1011,18 +1431,27 @@
         </is>
       </c>
       <c r="B35">
-        <v>100951</v>
+        <v>21858</v>
       </c>
       <c r="C35">
-        <v>359</v>
+        <v>12840</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>12918</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>24217</v>
       </c>
       <c r="F35">
+        <v>2769</v>
+      </c>
+      <c r="G35">
+        <v>17742</v>
+      </c>
+      <c r="H35">
+        <v>8607</v>
+      </c>
+      <c r="I35">
         <v>90946261553.23595</v>
       </c>
     </row>
@@ -1033,15 +1462,27 @@
         </is>
       </c>
       <c r="B36">
-        <v>5802</v>
+        <v>951</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>852</v>
+      </c>
+      <c r="D36">
+        <v>646</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>1782</v>
       </c>
       <c r="F36">
+        <v>132</v>
+      </c>
+      <c r="G36">
+        <v>1146</v>
+      </c>
+      <c r="H36">
+        <v>293</v>
+      </c>
+      <c r="I36">
         <v>9352095757.198114</v>
       </c>
     </row>
@@ -1052,12 +1493,27 @@
         </is>
       </c>
       <c r="B37">
-        <v>13146</v>
+        <v>2463</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>1724</v>
+      </c>
+      <c r="D37">
+        <v>1835</v>
+      </c>
+      <c r="E37">
+        <v>3973</v>
       </c>
       <c r="F37">
+        <v>381</v>
+      </c>
+      <c r="G37">
+        <v>2067</v>
+      </c>
+      <c r="H37">
+        <v>703</v>
+      </c>
+      <c r="I37">
         <v>14075920020.51613</v>
       </c>
     </row>
@@ -1068,15 +1524,27 @@
         </is>
       </c>
       <c r="B38">
-        <v>5458</v>
+        <v>1169</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>615</v>
+      </c>
+      <c r="D38">
+        <v>865</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>1394</v>
       </c>
       <c r="F38">
+        <v>143</v>
+      </c>
+      <c r="G38">
+        <v>943</v>
+      </c>
+      <c r="H38">
+        <v>329</v>
+      </c>
+      <c r="I38">
         <v>5490274928.470588</v>
       </c>
     </row>
@@ -1087,18 +1555,27 @@
         </is>
       </c>
       <c r="B39">
-        <v>8975</v>
+        <v>1783</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>1219</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>1285</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2252</v>
       </c>
       <c r="F39">
+        <v>260</v>
+      </c>
+      <c r="G39">
+        <v>1642</v>
+      </c>
+      <c r="H39">
+        <v>534</v>
+      </c>
+      <c r="I39">
         <v>9839456902.653061</v>
       </c>
     </row>
@@ -1109,18 +1586,27 @@
         </is>
       </c>
       <c r="B40">
-        <v>119381</v>
+        <v>27012</v>
       </c>
       <c r="C40">
-        <v>273</v>
+        <v>15053</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>17042</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>28527</v>
       </c>
       <c r="F40">
+        <v>2887</v>
+      </c>
+      <c r="G40">
+        <v>18481</v>
+      </c>
+      <c r="H40">
+        <v>10379</v>
+      </c>
+      <c r="I40">
         <v>118563074323.4049</v>
       </c>
     </row>
@@ -1131,10 +1617,25 @@
         </is>
       </c>
       <c r="B41">
-        <v>2358</v>
+        <v>585</v>
       </c>
       <c r="C41">
-        <v>112</v>
+        <v>243</v>
+      </c>
+      <c r="D41">
+        <v>288</v>
+      </c>
+      <c r="E41">
+        <v>525</v>
+      </c>
+      <c r="F41">
+        <v>117</v>
+      </c>
+      <c r="G41">
+        <v>326</v>
+      </c>
+      <c r="H41">
+        <v>274</v>
       </c>
     </row>
     <row r="42">
@@ -1144,18 +1645,27 @@
         </is>
       </c>
       <c r="B42">
-        <v>19637</v>
+        <v>3383</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>2680</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2575</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>5688</v>
       </c>
       <c r="F42">
+        <v>387</v>
+      </c>
+      <c r="G42">
+        <v>3761</v>
+      </c>
+      <c r="H42">
+        <v>1163</v>
+      </c>
+      <c r="I42">
         <v>23711104773.96226</v>
       </c>
     </row>
@@ -1166,12 +1676,27 @@
         </is>
       </c>
       <c r="B43">
-        <v>3375</v>
+        <v>441</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D43">
+        <v>397</v>
+      </c>
+      <c r="E43">
+        <v>1189</v>
       </c>
       <c r="F43">
+        <v>53</v>
+      </c>
+      <c r="G43">
+        <v>679</v>
+      </c>
+      <c r="H43">
+        <v>148</v>
+      </c>
+      <c r="I43">
         <v>3654416746.568808</v>
       </c>
     </row>
@@ -1182,12 +1707,27 @@
         </is>
       </c>
       <c r="B44">
-        <v>2524</v>
+        <v>363</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>349</v>
+      </c>
+      <c r="D44">
+        <v>310</v>
+      </c>
+      <c r="E44">
+        <v>812</v>
       </c>
       <c r="F44">
+        <v>49</v>
+      </c>
+      <c r="G44">
+        <v>531</v>
+      </c>
+      <c r="H44">
+        <v>110</v>
+      </c>
+      <c r="I44">
         <v>2855998928.260163</v>
       </c>
     </row>
@@ -1198,12 +1738,27 @@
         </is>
       </c>
       <c r="B45">
-        <v>3686</v>
+        <v>513</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>523</v>
+      </c>
+      <c r="D45">
+        <v>485</v>
+      </c>
+      <c r="E45">
+        <v>1313</v>
       </c>
       <c r="F45">
+        <v>63</v>
+      </c>
+      <c r="G45">
+        <v>641</v>
+      </c>
+      <c r="H45">
+        <v>148</v>
+      </c>
+      <c r="I45">
         <v>4140022481.029412</v>
       </c>
     </row>
@@ -1214,18 +1769,27 @@
         </is>
       </c>
       <c r="B46">
-        <v>8777</v>
+        <v>1587</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>1322</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>1097</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2350</v>
       </c>
       <c r="F46">
+        <v>190</v>
+      </c>
+      <c r="G46">
+        <v>1701</v>
+      </c>
+      <c r="H46">
+        <v>530</v>
+      </c>
+      <c r="I46">
         <v>9183080280.182926</v>
       </c>
     </row>
@@ -1236,12 +1800,27 @@
         </is>
       </c>
       <c r="B47">
-        <v>3903</v>
+        <v>625</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>626</v>
+      </c>
+      <c r="D47">
+        <v>508</v>
+      </c>
+      <c r="E47">
+        <v>1009</v>
       </c>
       <c r="F47">
+        <v>81</v>
+      </c>
+      <c r="G47">
+        <v>849</v>
+      </c>
+      <c r="H47">
+        <v>205</v>
+      </c>
+      <c r="I47">
         <v>5094117762.086957</v>
       </c>
     </row>
@@ -1252,12 +1831,27 @@
         </is>
       </c>
       <c r="B48">
-        <v>1793</v>
+        <v>316</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>178</v>
+      </c>
+      <c r="D48">
+        <v>260</v>
+      </c>
+      <c r="E48">
+        <v>523</v>
       </c>
       <c r="F48">
+        <v>58</v>
+      </c>
+      <c r="G48">
+        <v>344</v>
+      </c>
+      <c r="H48">
+        <v>114</v>
+      </c>
+      <c r="I48">
         <v>1921527703.835052</v>
       </c>
     </row>
@@ -1268,12 +1862,27 @@
         </is>
       </c>
       <c r="B49">
-        <v>1449</v>
+        <v>335</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>246</v>
+      </c>
+      <c r="D49">
+        <v>201</v>
+      </c>
+      <c r="E49">
+        <v>314</v>
       </c>
       <c r="F49">
+        <v>39</v>
+      </c>
+      <c r="G49">
+        <v>234</v>
+      </c>
+      <c r="H49">
+        <v>80</v>
+      </c>
+      <c r="I49">
         <v>2333781007.423077</v>
       </c>
     </row>
@@ -1284,12 +1893,27 @@
         </is>
       </c>
       <c r="B50">
-        <v>1686</v>
+        <v>297</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>198</v>
+      </c>
+      <c r="D50">
+        <v>261</v>
+      </c>
+      <c r="E50">
+        <v>477</v>
       </c>
       <c r="F50">
+        <v>45</v>
+      </c>
+      <c r="G50">
+        <v>294</v>
+      </c>
+      <c r="H50">
+        <v>114</v>
+      </c>
+      <c r="I50">
         <v>2160521990.508474</v>
       </c>
     </row>
@@ -1300,15 +1924,27 @@
         </is>
       </c>
       <c r="B51">
-        <v>25631</v>
+        <v>4297</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>3957</v>
+      </c>
+      <c r="D51">
+        <v>3168</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>7284</v>
       </c>
       <c r="F51">
+        <v>591</v>
+      </c>
+      <c r="G51">
+        <v>4774</v>
+      </c>
+      <c r="H51">
+        <v>1560</v>
+      </c>
+      <c r="I51">
         <v>26131733923.63206</v>
       </c>
     </row>
@@ -1319,15 +1955,27 @@
         </is>
       </c>
       <c r="B52">
-        <v>15498</v>
+        <v>2542</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>2334</v>
+      </c>
+      <c r="D52">
+        <v>1807</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4195</v>
       </c>
       <c r="F52">
+        <v>352</v>
+      </c>
+      <c r="G52">
+        <v>3341</v>
+      </c>
+      <c r="H52">
+        <v>927</v>
+      </c>
+      <c r="I52">
         <v>14297866792.26459</v>
       </c>
     </row>
@@ -1338,12 +1986,27 @@
         </is>
       </c>
       <c r="B53">
-        <v>3661</v>
+        <v>525</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>483</v>
+      </c>
+      <c r="D53">
+        <v>429</v>
+      </c>
+      <c r="E53">
+        <v>1117</v>
       </c>
       <c r="F53">
+        <v>66</v>
+      </c>
+      <c r="G53">
+        <v>842</v>
+      </c>
+      <c r="H53">
+        <v>199</v>
+      </c>
+      <c r="I53">
         <v>4828872604</v>
       </c>
     </row>
@@ -1354,12 +2017,27 @@
         </is>
       </c>
       <c r="B54">
-        <v>6297</v>
+        <v>890</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>885</v>
+      </c>
+      <c r="D54">
+        <v>765</v>
+      </c>
+      <c r="E54">
+        <v>2271</v>
       </c>
       <c r="F54">
+        <v>125</v>
+      </c>
+      <c r="G54">
+        <v>1065</v>
+      </c>
+      <c r="H54">
+        <v>296</v>
+      </c>
+      <c r="I54">
         <v>7414857000.594059</v>
       </c>
     </row>
@@ -1370,18 +2048,27 @@
         </is>
       </c>
       <c r="B55">
-        <v>5845</v>
+        <v>870</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>817</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>717</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>1692</v>
       </c>
       <c r="F55">
+        <v>120</v>
+      </c>
+      <c r="G55">
+        <v>1314</v>
+      </c>
+      <c r="H55">
+        <v>315</v>
+      </c>
+      <c r="I55">
         <v>5749381300.30303</v>
       </c>
     </row>
@@ -1392,15 +2079,27 @@
         </is>
       </c>
       <c r="B56">
-        <v>27244</v>
+        <v>4582</v>
       </c>
       <c r="C56">
-        <v>82</v>
+        <v>3698</v>
+      </c>
+      <c r="D56">
+        <v>3246</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>7337</v>
       </c>
       <c r="F56">
+        <v>651</v>
+      </c>
+      <c r="G56">
+        <v>6102</v>
+      </c>
+      <c r="H56">
+        <v>1628</v>
+      </c>
+      <c r="I56">
         <v>22527241143.75</v>
       </c>
     </row>
@@ -1411,12 +2110,27 @@
         </is>
       </c>
       <c r="B57">
-        <v>3982</v>
+        <v>932</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>410</v>
+      </c>
+      <c r="D57">
+        <v>790</v>
+      </c>
+      <c r="E57">
+        <v>859</v>
       </c>
       <c r="F57">
+        <v>101</v>
+      </c>
+      <c r="G57">
+        <v>610</v>
+      </c>
+      <c r="H57">
+        <v>280</v>
+      </c>
+      <c r="I57">
         <v>5398446269.935897</v>
       </c>
     </row>
@@ -1427,12 +2141,27 @@
         </is>
       </c>
       <c r="B58">
-        <v>7100</v>
+        <v>1496</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>771</v>
+      </c>
+      <c r="D58">
+        <v>1167</v>
+      </c>
+      <c r="E58">
+        <v>1636</v>
       </c>
       <c r="F58">
+        <v>222</v>
+      </c>
+      <c r="G58">
+        <v>1314</v>
+      </c>
+      <c r="H58">
+        <v>494</v>
+      </c>
+      <c r="I58">
         <v>5569658994.018518</v>
       </c>
     </row>
@@ -1443,15 +2172,27 @@
         </is>
       </c>
       <c r="B59">
-        <v>5483</v>
+        <v>1322</v>
       </c>
       <c r="C59">
-        <v>45</v>
+        <v>550</v>
+      </c>
+      <c r="D59">
+        <v>1144</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>1079</v>
       </c>
       <c r="F59">
+        <v>122</v>
+      </c>
+      <c r="G59">
+        <v>882</v>
+      </c>
+      <c r="H59">
+        <v>384</v>
+      </c>
+      <c r="I59">
         <v>4315799296.717172</v>
       </c>
     </row>
@@ -1462,15 +2203,27 @@
         </is>
       </c>
       <c r="B60">
-        <v>4850</v>
+        <v>1304</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>414</v>
+      </c>
+      <c r="D60">
+        <v>1032</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>905</v>
       </c>
       <c r="F60">
+        <v>114</v>
+      </c>
+      <c r="G60">
+        <v>715</v>
+      </c>
+      <c r="H60">
+        <v>366</v>
+      </c>
+      <c r="I60">
         <v>3816682339.925</v>
       </c>
     </row>
@@ -1481,12 +2234,27 @@
         </is>
       </c>
       <c r="B61">
-        <v>2042</v>
+        <v>336</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>208</v>
+      </c>
+      <c r="D61">
+        <v>336</v>
+      </c>
+      <c r="E61">
+        <v>661</v>
       </c>
       <c r="F61">
+        <v>51</v>
+      </c>
+      <c r="G61">
+        <v>359</v>
+      </c>
+      <c r="H61">
+        <v>91</v>
+      </c>
+      <c r="I61">
         <v>4408732520.253164</v>
       </c>
     </row>
@@ -1497,15 +2265,27 @@
         </is>
       </c>
       <c r="B62">
-        <v>23235</v>
+        <v>4473</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>3062</v>
+      </c>
+      <c r="D62">
+        <v>2913</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>6434</v>
       </c>
       <c r="F62">
+        <v>529</v>
+      </c>
+      <c r="G62">
+        <v>4192</v>
+      </c>
+      <c r="H62">
+        <v>1632</v>
+      </c>
+      <c r="I62">
         <v>23208536042.67962</v>
       </c>
     </row>
@@ -1516,12 +2296,27 @@
         </is>
       </c>
       <c r="B63">
-        <v>2503</v>
+        <v>399</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>326</v>
+      </c>
+      <c r="D63">
+        <v>310</v>
+      </c>
+      <c r="E63">
+        <v>738</v>
       </c>
       <c r="F63">
+        <v>53</v>
+      </c>
+      <c r="G63">
+        <v>519</v>
+      </c>
+      <c r="H63">
+        <v>158</v>
+      </c>
+      <c r="I63">
         <v>3264869971.962617</v>
       </c>
     </row>
@@ -1532,15 +2327,27 @@
         </is>
       </c>
       <c r="B64">
-        <v>5834</v>
+        <v>949</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>872</v>
+      </c>
+      <c r="D64">
+        <v>708</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>1664</v>
       </c>
       <c r="F64">
+        <v>114</v>
+      </c>
+      <c r="G64">
+        <v>1187</v>
+      </c>
+      <c r="H64">
+        <v>340</v>
+      </c>
+      <c r="I64">
         <v>7275684300.929293</v>
       </c>
     </row>
@@ -1551,12 +2358,27 @@
         </is>
       </c>
       <c r="B65">
-        <v>1208</v>
+        <v>183</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>152</v>
+      </c>
+      <c r="D65">
+        <v>154</v>
+      </c>
+      <c r="E65">
+        <v>365</v>
       </c>
       <c r="F65">
+        <v>27</v>
+      </c>
+      <c r="G65">
+        <v>247</v>
+      </c>
+      <c r="H65">
+        <v>80</v>
+      </c>
+      <c r="I65">
         <v>2385858927.961165</v>
       </c>
     </row>
@@ -1567,12 +2389,27 @@
         </is>
       </c>
       <c r="B66">
-        <v>2047</v>
+        <v>376</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>298</v>
+      </c>
+      <c r="D66">
+        <v>225</v>
+      </c>
+      <c r="E66">
+        <v>498</v>
       </c>
       <c r="F66">
+        <v>49</v>
+      </c>
+      <c r="G66">
+        <v>469</v>
+      </c>
+      <c r="H66">
+        <v>132</v>
+      </c>
+      <c r="I66">
         <v>5187514898.172043</v>
       </c>
     </row>
@@ -1583,12 +2420,27 @@
         </is>
       </c>
       <c r="B67">
-        <v>3204</v>
+        <v>523</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>453</v>
+      </c>
+      <c r="D67">
+        <v>375</v>
+      </c>
+      <c r="E67">
+        <v>975</v>
       </c>
       <c r="F67">
+        <v>60</v>
+      </c>
+      <c r="G67">
+        <v>643</v>
+      </c>
+      <c r="H67">
+        <v>175</v>
+      </c>
+      <c r="I67">
         <v>3907844673.956141</v>
       </c>
     </row>
@@ -1599,15 +2451,27 @@
         </is>
       </c>
       <c r="B68">
-        <v>49960</v>
+        <v>8303</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>7174</v>
+      </c>
+      <c r="D68">
+        <v>6712</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>14306</v>
       </c>
       <c r="F68">
+        <v>1143</v>
+      </c>
+      <c r="G68">
+        <v>9200</v>
+      </c>
+      <c r="H68">
+        <v>3122</v>
+      </c>
+      <c r="I68">
         <v>52247193426.12401</v>
       </c>
     </row>
@@ -1618,12 +2482,27 @@
         </is>
       </c>
       <c r="B69">
-        <v>12384</v>
+        <v>1940</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>1767</v>
+      </c>
+      <c r="D69">
+        <v>1539</v>
+      </c>
+      <c r="E69">
+        <v>3555</v>
       </c>
       <c r="F69">
+        <v>331</v>
+      </c>
+      <c r="G69">
+        <v>2535</v>
+      </c>
+      <c r="H69">
+        <v>717</v>
+      </c>
+      <c r="I69">
         <v>14176705124.93939</v>
       </c>
     </row>
@@ -1634,12 +2513,27 @@
         </is>
       </c>
       <c r="B70">
-        <v>4146</v>
+        <v>837</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>498</v>
+      </c>
+      <c r="D70">
+        <v>622</v>
+      </c>
+      <c r="E70">
+        <v>1108</v>
       </c>
       <c r="F70">
+        <v>92</v>
+      </c>
+      <c r="G70">
+        <v>771</v>
+      </c>
+      <c r="H70">
+        <v>218</v>
+      </c>
+      <c r="I70">
         <v>5149662270.705882</v>
       </c>
     </row>
@@ -1650,15 +2544,27 @@
         </is>
       </c>
       <c r="B71">
-        <v>40663</v>
+        <v>6119</v>
       </c>
       <c r="C71">
-        <v>45</v>
+        <v>5978</v>
+      </c>
+      <c r="D71">
+        <v>5183</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>12743</v>
       </c>
       <c r="F71">
+        <v>936</v>
+      </c>
+      <c r="G71">
+        <v>7494</v>
+      </c>
+      <c r="H71">
+        <v>2210</v>
+      </c>
+      <c r="I71">
         <v>45800670898.62372</v>
       </c>
     </row>
@@ -1669,12 +2575,27 @@
         </is>
       </c>
       <c r="B72">
-        <v>78931</v>
+        <v>14157</v>
       </c>
       <c r="C72">
-        <v>136</v>
+        <v>11083</v>
+      </c>
+      <c r="D72">
+        <v>10809</v>
+      </c>
+      <c r="E72">
+        <v>23197</v>
       </c>
       <c r="F72">
+        <v>1681</v>
+      </c>
+      <c r="G72">
+        <v>13439</v>
+      </c>
+      <c r="H72">
+        <v>4565</v>
+      </c>
+      <c r="I72">
         <v>76977097284.23683</v>
       </c>
     </row>
@@ -1685,12 +2606,27 @@
         </is>
       </c>
       <c r="B73">
-        <v>2166</v>
+        <v>316</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>281</v>
+      </c>
+      <c r="D73">
+        <v>243</v>
+      </c>
+      <c r="E73">
+        <v>699</v>
       </c>
       <c r="F73">
+        <v>44</v>
+      </c>
+      <c r="G73">
+        <v>469</v>
+      </c>
+      <c r="H73">
+        <v>114</v>
+      </c>
+      <c r="I73">
         <v>3758801352.418604</v>
       </c>
     </row>
@@ -1701,12 +2637,27 @@
         </is>
       </c>
       <c r="B74">
-        <v>1109</v>
+        <v>179</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="D74">
+        <v>162</v>
+      </c>
+      <c r="E74">
+        <v>345</v>
       </c>
       <c r="F74">
+        <v>31</v>
+      </c>
+      <c r="G74">
+        <v>202</v>
+      </c>
+      <c r="H74">
+        <v>54</v>
+      </c>
+      <c r="I74">
         <v>1651985452.568807</v>
       </c>
     </row>
@@ -1717,12 +2668,27 @@
         </is>
       </c>
       <c r="B75">
-        <v>3532</v>
+        <v>538</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>515</v>
+      </c>
+      <c r="D75">
+        <v>431</v>
+      </c>
+      <c r="E75">
+        <v>1119</v>
       </c>
       <c r="F75">
+        <v>84</v>
+      </c>
+      <c r="G75">
+        <v>692</v>
+      </c>
+      <c r="H75">
+        <v>153</v>
+      </c>
+      <c r="I75">
         <v>5466110794.724137</v>
       </c>
     </row>
@@ -1733,12 +2699,27 @@
         </is>
       </c>
       <c r="B76">
-        <v>5349</v>
+        <v>829</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>756</v>
+      </c>
+      <c r="D76">
+        <v>669</v>
+      </c>
+      <c r="E76">
+        <v>1748</v>
       </c>
       <c r="F76">
+        <v>99</v>
+      </c>
+      <c r="G76">
+        <v>989</v>
+      </c>
+      <c r="H76">
+        <v>259</v>
+      </c>
+      <c r="I76">
         <v>6402533884</v>
       </c>
     </row>
@@ -1749,15 +2730,27 @@
         </is>
       </c>
       <c r="B77">
-        <v>9274</v>
+        <v>1353</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>1215</v>
+      </c>
+      <c r="D77">
+        <v>1100</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>3025</v>
       </c>
       <c r="F77">
+        <v>192</v>
+      </c>
+      <c r="G77">
+        <v>1893</v>
+      </c>
+      <c r="H77">
+        <v>496</v>
+      </c>
+      <c r="I77">
         <v>10426820414.96124</v>
       </c>
     </row>
@@ -1768,12 +2761,27 @@
         </is>
       </c>
       <c r="B78">
-        <v>3134</v>
+        <v>544</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>390</v>
+      </c>
+      <c r="D78">
+        <v>413</v>
+      </c>
+      <c r="E78">
+        <v>915</v>
       </c>
       <c r="F78">
+        <v>90</v>
+      </c>
+      <c r="G78">
+        <v>606</v>
+      </c>
+      <c r="H78">
+        <v>176</v>
+      </c>
+      <c r="I78">
         <v>6894533313.684211</v>
       </c>
     </row>
@@ -1784,12 +2792,27 @@
         </is>
       </c>
       <c r="B79">
-        <v>16427</v>
+        <v>2234</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>1960</v>
+      </c>
+      <c r="D79">
+        <v>2255</v>
+      </c>
+      <c r="E79">
+        <v>6298</v>
       </c>
       <c r="F79">
+        <v>340</v>
+      </c>
+      <c r="G79">
+        <v>2644</v>
+      </c>
+      <c r="H79">
+        <v>696</v>
+      </c>
+      <c r="I79">
         <v>16602037093.37979</v>
       </c>
     </row>
@@ -1800,15 +2823,27 @@
         </is>
       </c>
       <c r="B80">
-        <v>1749</v>
+        <v>289</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>243</v>
+      </c>
+      <c r="D80">
+        <v>176</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="F80">
+        <v>37</v>
+      </c>
+      <c r="G80">
+        <v>375</v>
+      </c>
+      <c r="H80">
+        <v>86</v>
+      </c>
+      <c r="I80">
         <v>2863689033.286957</v>
       </c>
     </row>
@@ -1819,15 +2854,27 @@
         </is>
       </c>
       <c r="B81">
-        <v>6614</v>
+        <v>1030</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>890</v>
+      </c>
+      <c r="D81">
+        <v>778</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2042</v>
       </c>
       <c r="F81">
+        <v>147</v>
+      </c>
+      <c r="G81">
+        <v>1412</v>
+      </c>
+      <c r="H81">
+        <v>315</v>
+      </c>
+      <c r="I81">
         <v>7392597596.235023</v>
       </c>
     </row>
@@ -1838,12 +2885,27 @@
         </is>
       </c>
       <c r="B82">
-        <v>2951</v>
+        <v>446</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>303</v>
+      </c>
+      <c r="D82">
+        <v>414</v>
+      </c>
+      <c r="E82">
+        <v>988</v>
       </c>
       <c r="F82">
+        <v>57</v>
+      </c>
+      <c r="G82">
+        <v>588</v>
+      </c>
+      <c r="H82">
+        <v>155</v>
+      </c>
+      <c r="I82">
         <v>4054025677.655172</v>
       </c>
     </row>
@@ -1854,12 +2916,27 @@
         </is>
       </c>
       <c r="B83">
-        <v>3782</v>
+        <v>609</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>478</v>
+      </c>
+      <c r="D83">
+        <v>491</v>
+      </c>
+      <c r="E83">
+        <v>1141</v>
       </c>
       <c r="F83">
+        <v>76</v>
+      </c>
+      <c r="G83">
+        <v>799</v>
+      </c>
+      <c r="H83">
+        <v>188</v>
+      </c>
+      <c r="I83">
         <v>3559462965.658537</v>
       </c>
     </row>
@@ -1870,12 +2947,27 @@
         </is>
       </c>
       <c r="B84">
-        <v>3026</v>
+        <v>495</v>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>333</v>
+      </c>
+      <c r="D84">
+        <v>434</v>
+      </c>
+      <c r="E84">
+        <v>968</v>
       </c>
       <c r="F84">
+        <v>71</v>
+      </c>
+      <c r="G84">
+        <v>573</v>
+      </c>
+      <c r="H84">
+        <v>152</v>
+      </c>
+      <c r="I84">
         <v>4616762518</v>
       </c>
     </row>
@@ -1886,12 +2978,27 @@
         </is>
       </c>
       <c r="B85">
-        <v>2383</v>
+        <v>402</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>317</v>
+      </c>
+      <c r="D85">
+        <v>317</v>
+      </c>
+      <c r="E85">
+        <v>702</v>
       </c>
       <c r="F85">
+        <v>63</v>
+      </c>
+      <c r="G85">
+        <v>445</v>
+      </c>
+      <c r="H85">
+        <v>137</v>
+      </c>
+      <c r="I85">
         <v>2741286093.46789</v>
       </c>
     </row>
@@ -1902,15 +3009,27 @@
         </is>
       </c>
       <c r="B86">
-        <v>14960</v>
+        <v>2591</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>2155</v>
+      </c>
+      <c r="D86">
+        <v>1716</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>4445</v>
       </c>
       <c r="F86">
+        <v>340</v>
+      </c>
+      <c r="G86">
+        <v>2909</v>
+      </c>
+      <c r="H86">
+        <v>804</v>
+      </c>
+      <c r="I86">
         <v>17273974762.00696</v>
       </c>
     </row>
@@ -1921,15 +3040,27 @@
         </is>
       </c>
       <c r="B87">
-        <v>5017</v>
+        <v>663</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>626</v>
+      </c>
+      <c r="D87">
+        <v>593</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>1787</v>
       </c>
       <c r="F87">
+        <v>92</v>
+      </c>
+      <c r="G87">
+        <v>1011</v>
+      </c>
+      <c r="H87">
+        <v>245</v>
+      </c>
+      <c r="I87">
         <v>8078983811.428571</v>
       </c>
     </row>
@@ -1940,18 +3071,27 @@
         </is>
       </c>
       <c r="B88">
-        <v>8708</v>
+        <v>1469</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>1235</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>1138</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2596</v>
       </c>
       <c r="F88">
+        <v>226</v>
+      </c>
+      <c r="G88">
+        <v>1545</v>
+      </c>
+      <c r="H88">
+        <v>499</v>
+      </c>
+      <c r="I88">
         <v>13358975033.0606</v>
       </c>
     </row>
@@ -1962,12 +3102,27 @@
         </is>
       </c>
       <c r="B89">
-        <v>4692</v>
+        <v>1075</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>551</v>
+      </c>
+      <c r="D89">
+        <v>732</v>
+      </c>
+      <c r="E89">
+        <v>1274</v>
       </c>
       <c r="F89">
+        <v>115</v>
+      </c>
+      <c r="G89">
+        <v>654</v>
+      </c>
+      <c r="H89">
+        <v>291</v>
+      </c>
+      <c r="I89">
         <v>5643258336.30137</v>
       </c>
     </row>
@@ -1978,12 +3133,27 @@
         </is>
       </c>
       <c r="B90">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D90">
+        <v>59</v>
+      </c>
+      <c r="E90">
+        <v>117</v>
       </c>
       <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <v>49</v>
+      </c>
+      <c r="H90">
+        <v>31</v>
+      </c>
+      <c r="I90">
         <v>891866685.5604396</v>
       </c>
     </row>
@@ -1994,12 +3164,27 @@
         </is>
       </c>
       <c r="B91">
-        <v>1201</v>
+        <v>261</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>133</v>
+      </c>
+      <c r="D91">
+        <v>200</v>
+      </c>
+      <c r="E91">
+        <v>361</v>
       </c>
       <c r="F91">
+        <v>27</v>
+      </c>
+      <c r="G91">
+        <v>160</v>
+      </c>
+      <c r="H91">
+        <v>59</v>
+      </c>
+      <c r="I91">
         <v>1881627117.402062</v>
       </c>
     </row>
@@ -2010,12 +3195,27 @@
         </is>
       </c>
       <c r="B92">
-        <v>1180</v>
+        <v>263</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="D92">
+        <v>186</v>
+      </c>
+      <c r="E92">
+        <v>324</v>
       </c>
       <c r="F92">
+        <v>29</v>
+      </c>
+      <c r="G92">
+        <v>175</v>
+      </c>
+      <c r="H92">
+        <v>65</v>
+      </c>
+      <c r="I92">
         <v>2458260032.666667</v>
       </c>
     </row>
@@ -2026,12 +3226,27 @@
         </is>
       </c>
       <c r="B93">
-        <v>678</v>
+        <v>164</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>97</v>
+      </c>
+      <c r="D93">
+        <v>110</v>
+      </c>
+      <c r="E93">
+        <v>179</v>
       </c>
       <c r="F93">
+        <v>26</v>
+      </c>
+      <c r="G93">
+        <v>70</v>
+      </c>
+      <c r="H93">
+        <v>32</v>
+      </c>
+      <c r="I93">
         <v>1475951352.909091</v>
       </c>
     </row>
@@ -2042,15 +3257,27 @@
         </is>
       </c>
       <c r="B94">
-        <v>21445</v>
+        <v>3978</v>
       </c>
       <c r="C94">
-        <v>41</v>
+        <v>3168</v>
+      </c>
+      <c r="D94">
+        <v>2745</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>6371</v>
       </c>
       <c r="F94">
+        <v>424</v>
+      </c>
+      <c r="G94">
+        <v>3599</v>
+      </c>
+      <c r="H94">
+        <v>1160</v>
+      </c>
+      <c r="I94">
         <v>24041131494.80337</v>
       </c>
     </row>
@@ -2061,12 +3288,27 @@
         </is>
       </c>
       <c r="B95">
-        <v>2866</v>
+        <v>450</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>426</v>
+      </c>
+      <c r="D95">
+        <v>364</v>
+      </c>
+      <c r="E95">
+        <v>940</v>
       </c>
       <c r="F95">
+        <v>50</v>
+      </c>
+      <c r="G95">
+        <v>475</v>
+      </c>
+      <c r="H95">
+        <v>161</v>
+      </c>
+      <c r="I95">
         <v>3691714536.714286</v>
       </c>
     </row>
@@ -2077,15 +3319,27 @@
         </is>
       </c>
       <c r="B96">
-        <v>6764</v>
+        <v>1116</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>1071</v>
+      </c>
+      <c r="D96">
+        <v>812</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2055</v>
       </c>
       <c r="F96">
+        <v>105</v>
+      </c>
+      <c r="G96">
+        <v>1270</v>
+      </c>
+      <c r="H96">
+        <v>335</v>
+      </c>
+      <c r="I96">
         <v>9228754902.615894</v>
       </c>
     </row>
@@ -2096,12 +3350,27 @@
         </is>
       </c>
       <c r="B97">
-        <v>850</v>
+        <v>164</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="D97">
+        <v>137</v>
+      </c>
+      <c r="E97">
+        <v>264</v>
       </c>
       <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97">
+        <v>135</v>
+      </c>
+      <c r="H97">
+        <v>39</v>
+      </c>
+      <c r="I97">
         <v>1611947197.148936</v>
       </c>
     </row>
@@ -2112,15 +3381,27 @@
         </is>
       </c>
       <c r="B98">
-        <v>3752</v>
+        <v>615</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>565</v>
+      </c>
+      <c r="D98">
+        <v>484</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>1155</v>
       </c>
       <c r="F98">
+        <v>64</v>
+      </c>
+      <c r="G98">
+        <v>690</v>
+      </c>
+      <c r="H98">
+        <v>179</v>
+      </c>
+      <c r="I98">
         <v>4386786330.781955</v>
       </c>
     </row>
@@ -2131,12 +3412,27 @@
         </is>
       </c>
       <c r="B99">
-        <v>1100</v>
+        <v>152</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D99">
+        <v>159</v>
+      </c>
+      <c r="E99">
+        <v>339</v>
       </c>
       <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>252</v>
+      </c>
+      <c r="H99">
+        <v>54</v>
+      </c>
+      <c r="I99">
         <v>3079870842.831683</v>
       </c>
     </row>
@@ -2147,12 +3443,27 @@
         </is>
       </c>
       <c r="B100">
-        <v>2269</v>
+        <v>424</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>323</v>
+      </c>
+      <c r="D100">
+        <v>291</v>
+      </c>
+      <c r="E100">
+        <v>687</v>
       </c>
       <c r="F100">
+        <v>37</v>
+      </c>
+      <c r="G100">
+        <v>408</v>
+      </c>
+      <c r="H100">
+        <v>99</v>
+      </c>
+      <c r="I100">
         <v>2923796849.916667</v>
       </c>
     </row>
@@ -2163,12 +3474,27 @@
         </is>
       </c>
       <c r="B101">
-        <v>774</v>
+        <v>134</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>105</v>
+      </c>
+      <c r="D101">
+        <v>111</v>
+      </c>
+      <c r="E101">
+        <v>200</v>
       </c>
       <c r="F101">
+        <v>19</v>
+      </c>
+      <c r="G101">
+        <v>156</v>
+      </c>
+      <c r="H101">
+        <v>49</v>
+      </c>
+      <c r="I101">
         <v>2102134220.106195</v>
       </c>
     </row>
@@ -2179,15 +3505,27 @@
         </is>
       </c>
       <c r="B102">
-        <v>7641</v>
+        <v>1389</v>
       </c>
       <c r="C102">
-        <v>26</v>
+        <v>1114</v>
+      </c>
+      <c r="D102">
+        <v>1038</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>2133</v>
       </c>
       <c r="F102">
+        <v>194</v>
+      </c>
+      <c r="G102">
+        <v>1308</v>
+      </c>
+      <c r="H102">
+        <v>465</v>
+      </c>
+      <c r="I102">
         <v>11393463346.08911</v>
       </c>
     </row>
@@ -2198,12 +3536,27 @@
         </is>
       </c>
       <c r="B103">
-        <v>70359</v>
+        <v>13397</v>
       </c>
       <c r="C103">
-        <v>224</v>
+        <v>9650</v>
+      </c>
+      <c r="D103">
+        <v>8758</v>
+      </c>
+      <c r="E103">
+        <v>19823</v>
       </c>
       <c r="F103">
+        <v>1560</v>
+      </c>
+      <c r="G103">
+        <v>12006</v>
+      </c>
+      <c r="H103">
+        <v>5165</v>
+      </c>
+      <c r="I103">
         <v>67732753814.36247</v>
       </c>
     </row>
@@ -2214,15 +3567,27 @@
         </is>
       </c>
       <c r="B104">
-        <v>12523</v>
+        <v>2277</v>
       </c>
       <c r="C104">
-        <v>60</v>
+        <v>1675</v>
+      </c>
+      <c r="D104">
+        <v>1641</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>4009</v>
       </c>
       <c r="F104">
+        <v>227</v>
+      </c>
+      <c r="G104">
+        <v>2078</v>
+      </c>
+      <c r="H104">
+        <v>616</v>
+      </c>
+      <c r="I104">
         <v>12932986800.46154</v>
       </c>
     </row>
@@ -2233,12 +3598,27 @@
         </is>
       </c>
       <c r="B105">
-        <v>1267</v>
+        <v>303</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>232</v>
+      </c>
+      <c r="D105">
+        <v>162</v>
+      </c>
+      <c r="E105">
+        <v>325</v>
       </c>
       <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105">
+        <v>163</v>
+      </c>
+      <c r="H105">
+        <v>61</v>
+      </c>
+      <c r="I105">
         <v>2662971119.569893</v>
       </c>
     </row>
@@ -2249,12 +3629,27 @@
         </is>
       </c>
       <c r="B106">
-        <v>1045</v>
+        <v>220</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="D106">
+        <v>129</v>
+      </c>
+      <c r="E106">
+        <v>344</v>
       </c>
       <c r="F106">
+        <v>20</v>
+      </c>
+      <c r="G106">
+        <v>145</v>
+      </c>
+      <c r="H106">
+        <v>61</v>
+      </c>
+      <c r="I106">
         <v>866652109.6428572</v>
       </c>
     </row>
@@ -2265,12 +3660,27 @@
         </is>
       </c>
       <c r="B107">
-        <v>12351</v>
+        <v>1746</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>1928</v>
+      </c>
+      <c r="D107">
+        <v>1307</v>
+      </c>
+      <c r="E107">
+        <v>4708</v>
       </c>
       <c r="F107">
+        <v>260</v>
+      </c>
+      <c r="G107">
+        <v>1903</v>
+      </c>
+      <c r="H107">
+        <v>499</v>
+      </c>
+      <c r="I107">
         <v>12182624190.14414</v>
       </c>
     </row>
@@ -2281,12 +3691,27 @@
         </is>
       </c>
       <c r="B108">
-        <v>859</v>
+        <v>148</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="D108">
+        <v>98</v>
+      </c>
+      <c r="E108">
+        <v>265</v>
       </c>
       <c r="F108">
+        <v>17</v>
+      </c>
+      <c r="G108">
+        <v>171</v>
+      </c>
+      <c r="H108">
+        <v>34</v>
+      </c>
+      <c r="I108">
         <v>1825700105</v>
       </c>
     </row>
@@ -2297,12 +3722,27 @@
         </is>
       </c>
       <c r="B109">
-        <v>1109</v>
+        <v>185</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="D109">
+        <v>121</v>
+      </c>
+      <c r="E109">
+        <v>406</v>
       </c>
       <c r="F109">
+        <v>28</v>
+      </c>
+      <c r="G109">
+        <v>198</v>
+      </c>
+      <c r="H109">
+        <v>45</v>
+      </c>
+      <c r="I109">
         <v>1926795578.611111</v>
       </c>
     </row>
@@ -2313,9 +3753,27 @@
         </is>
       </c>
       <c r="B110">
-        <v>1473</v>
+        <v>224</v>
+      </c>
+      <c r="C110">
+        <v>221</v>
+      </c>
+      <c r="D110">
+        <v>178</v>
+      </c>
+      <c r="E110">
+        <v>516</v>
       </c>
       <c r="F110">
+        <v>24</v>
+      </c>
+      <c r="G110">
+        <v>248</v>
+      </c>
+      <c r="H110">
+        <v>62</v>
+      </c>
+      <c r="I110">
         <v>3126961589.596491</v>
       </c>
     </row>
@@ -2326,12 +3784,27 @@
         </is>
       </c>
       <c r="B111">
-        <v>6962</v>
+        <v>1058</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>1189</v>
+      </c>
+      <c r="D111">
+        <v>745</v>
+      </c>
+      <c r="E111">
+        <v>2278</v>
       </c>
       <c r="F111">
+        <v>112</v>
+      </c>
+      <c r="G111">
+        <v>1275</v>
+      </c>
+      <c r="H111">
+        <v>305</v>
+      </c>
+      <c r="I111">
         <v>10687595452.45794</v>
       </c>
     </row>
@@ -2342,12 +3815,27 @@
         </is>
       </c>
       <c r="B112">
-        <v>1626</v>
+        <v>272</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="D112">
+        <v>172</v>
+      </c>
+      <c r="E112">
+        <v>558</v>
       </c>
       <c r="F112">
+        <v>24</v>
+      </c>
+      <c r="G112">
+        <v>270</v>
+      </c>
+      <c r="H112">
+        <v>69</v>
+      </c>
+      <c r="I112">
         <v>2294886655.941176</v>
       </c>
     </row>
@@ -2358,12 +3846,27 @@
         </is>
       </c>
       <c r="B113">
-        <v>11556</v>
+        <v>2433</v>
       </c>
       <c r="C113">
-        <v>13</v>
+        <v>1694</v>
+      </c>
+      <c r="D113">
+        <v>1478</v>
+      </c>
+      <c r="E113">
+        <v>3009</v>
       </c>
       <c r="F113">
+        <v>205</v>
+      </c>
+      <c r="G113">
+        <v>1976</v>
+      </c>
+      <c r="H113">
+        <v>761</v>
+      </c>
+      <c r="I113">
         <v>9515918891.723927</v>
       </c>
     </row>
@@ -2374,12 +3877,27 @@
         </is>
       </c>
       <c r="B114">
-        <v>1338</v>
+        <v>252</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>186</v>
+      </c>
+      <c r="D114">
+        <v>177</v>
+      </c>
+      <c r="E114">
+        <v>366</v>
       </c>
       <c r="F114">
+        <v>25</v>
+      </c>
+      <c r="G114">
+        <v>251</v>
+      </c>
+      <c r="H114">
+        <v>81</v>
+      </c>
+      <c r="I114">
         <v>2234922252.131868</v>
       </c>
     </row>
@@ -2390,12 +3908,27 @@
         </is>
       </c>
       <c r="B115">
-        <v>1462</v>
+        <v>336</v>
       </c>
       <c r="C115">
-        <v>24</v>
+        <v>156</v>
+      </c>
+      <c r="D115">
+        <v>251</v>
+      </c>
+      <c r="E115">
+        <v>411</v>
       </c>
       <c r="F115">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>199</v>
+      </c>
+      <c r="H115">
+        <v>91</v>
+      </c>
+      <c r="I115">
         <v>1534908448.109589</v>
       </c>
     </row>
@@ -2406,12 +3939,27 @@
         </is>
       </c>
       <c r="B116">
-        <v>44157</v>
+        <v>7510</v>
       </c>
       <c r="C116">
-        <v>42</v>
+        <v>6264</v>
+      </c>
+      <c r="D116">
+        <v>5599</v>
+      </c>
+      <c r="E116">
+        <v>13563</v>
       </c>
       <c r="F116">
+        <v>929</v>
+      </c>
+      <c r="G116">
+        <v>7625</v>
+      </c>
+      <c r="H116">
+        <v>2667</v>
+      </c>
+      <c r="I116">
         <v>42117028332.96754</v>
       </c>
     </row>
@@ -2422,15 +3970,27 @@
         </is>
       </c>
       <c r="B117">
-        <v>2087</v>
+        <v>459</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="D117">
+        <v>293</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>618</v>
       </c>
       <c r="F117">
+        <v>38</v>
+      </c>
+      <c r="G117">
+        <v>293</v>
+      </c>
+      <c r="H117">
+        <v>107</v>
+      </c>
+      <c r="I117">
         <v>2928781043.149606</v>
       </c>
     </row>
@@ -2441,12 +4001,27 @@
         </is>
       </c>
       <c r="B118">
-        <v>1764</v>
+        <v>378</v>
       </c>
       <c r="C118">
-        <v>26</v>
+        <v>235</v>
+      </c>
+      <c r="D118">
+        <v>274</v>
+      </c>
+      <c r="E118">
+        <v>508</v>
       </c>
       <c r="F118">
+        <v>36</v>
+      </c>
+      <c r="G118">
+        <v>237</v>
+      </c>
+      <c r="H118">
+        <v>96</v>
+      </c>
+      <c r="I118">
         <v>1741750147.631579</v>
       </c>
     </row>
@@ -2457,18 +4032,27 @@
         </is>
       </c>
       <c r="B119">
-        <v>12328</v>
+        <v>2100</v>
       </c>
       <c r="C119">
-        <v>26</v>
+        <v>1845</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>1456</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>3809</v>
       </c>
       <c r="F119">
+        <v>207</v>
+      </c>
+      <c r="G119">
+        <v>2241</v>
+      </c>
+      <c r="H119">
+        <v>670</v>
+      </c>
+      <c r="I119">
         <v>12009998194.92896</v>
       </c>
     </row>
@@ -2479,15 +4063,27 @@
         </is>
       </c>
       <c r="B120">
-        <v>1866</v>
+        <v>330</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>328</v>
+      </c>
+      <c r="D120">
+        <v>193</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>599</v>
       </c>
       <c r="F120">
+        <v>32</v>
+      </c>
+      <c r="G120">
+        <v>291</v>
+      </c>
+      <c r="H120">
+        <v>93</v>
+      </c>
+      <c r="I120">
         <v>2845428741.428572</v>
       </c>
     </row>
@@ -2498,15 +4094,27 @@
         </is>
       </c>
       <c r="B121">
-        <v>2103</v>
+        <v>324</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>302</v>
+      </c>
+      <c r="D121">
+        <v>236</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="F121">
+        <v>40</v>
+      </c>
+      <c r="G121">
+        <v>414</v>
+      </c>
+      <c r="H121">
+        <v>86</v>
+      </c>
+      <c r="I121">
         <v>4085560646.122807</v>
       </c>
     </row>
@@ -2517,12 +4125,27 @@
         </is>
       </c>
       <c r="B122">
-        <v>2622</v>
+        <v>422</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>369</v>
+      </c>
+      <c r="D122">
+        <v>306</v>
+      </c>
+      <c r="E122">
+        <v>896</v>
       </c>
       <c r="F122">
+        <v>44</v>
+      </c>
+      <c r="G122">
+        <v>456</v>
+      </c>
+      <c r="H122">
+        <v>129</v>
+      </c>
+      <c r="I122">
         <v>4611045339.2</v>
       </c>
     </row>
@@ -2533,12 +4156,27 @@
         </is>
       </c>
       <c r="B123">
-        <v>3138</v>
+        <v>516</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>508</v>
+      </c>
+      <c r="D123">
+        <v>358</v>
+      </c>
+      <c r="E123">
+        <v>1025</v>
       </c>
       <c r="F123">
+        <v>46</v>
+      </c>
+      <c r="G123">
+        <v>545</v>
+      </c>
+      <c r="H123">
+        <v>140</v>
+      </c>
+      <c r="I123">
         <v>7579820260.516394</v>
       </c>
     </row>
@@ -2549,12 +4187,27 @@
         </is>
       </c>
       <c r="B124">
-        <v>414</v>
+        <v>94</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="D124">
+        <v>61</v>
+      </c>
+      <c r="E124">
+        <v>122</v>
       </c>
       <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>54</v>
+      </c>
+      <c r="H124">
+        <v>19</v>
+      </c>
+      <c r="I124">
         <v>943414066.0975609</v>
       </c>
     </row>
@@ -2565,18 +4218,27 @@
         </is>
       </c>
       <c r="B125">
-        <v>25985</v>
+        <v>4522</v>
       </c>
       <c r="C125">
-        <v>32</v>
+        <v>4169</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>3295</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>7662</v>
       </c>
       <c r="F125">
+        <v>471</v>
+      </c>
+      <c r="G125">
+        <v>4478</v>
+      </c>
+      <c r="H125">
+        <v>1388</v>
+      </c>
+      <c r="I125">
         <v>25291751487.41618</v>
       </c>
     </row>
@@ -2587,12 +4249,27 @@
         </is>
       </c>
       <c r="B126">
-        <v>3127</v>
+        <v>610</v>
       </c>
       <c r="C126">
-        <v>12</v>
+        <v>591</v>
+      </c>
+      <c r="D126">
+        <v>363</v>
+      </c>
+      <c r="E126">
+        <v>954</v>
       </c>
       <c r="F126">
+        <v>43</v>
+      </c>
+      <c r="G126">
+        <v>446</v>
+      </c>
+      <c r="H126">
+        <v>120</v>
+      </c>
+      <c r="I126">
         <v>4173410967.029703</v>
       </c>
     </row>
@@ -2603,12 +4280,27 @@
         </is>
       </c>
       <c r="B127">
-        <v>2982</v>
+        <v>478</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>423</v>
+      </c>
+      <c r="D127">
+        <v>364</v>
+      </c>
+      <c r="E127">
+        <v>907</v>
       </c>
       <c r="F127">
+        <v>49</v>
+      </c>
+      <c r="G127">
+        <v>622</v>
+      </c>
+      <c r="H127">
+        <v>139</v>
+      </c>
+      <c r="I127">
         <v>6597394824.942149</v>
       </c>
     </row>
@@ -2619,15 +4311,27 @@
         </is>
       </c>
       <c r="B128">
-        <v>10676</v>
+        <v>2063</v>
       </c>
       <c r="C128">
-        <v>16</v>
+        <v>1522</v>
+      </c>
+      <c r="D128">
+        <v>1439</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>3237</v>
       </c>
       <c r="F128">
+        <v>191</v>
+      </c>
+      <c r="G128">
+        <v>1674</v>
+      </c>
+      <c r="H128">
+        <v>550</v>
+      </c>
+      <c r="I128">
         <v>11091040323.83133</v>
       </c>
     </row>
@@ -2638,12 +4342,27 @@
         </is>
       </c>
       <c r="B129">
-        <v>2482</v>
+        <v>479</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>346</v>
+      </c>
+      <c r="D129">
+        <v>361</v>
+      </c>
+      <c r="E129">
+        <v>815</v>
       </c>
       <c r="F129">
+        <v>38</v>
+      </c>
+      <c r="G129">
+        <v>339</v>
+      </c>
+      <c r="H129">
+        <v>104</v>
+      </c>
+      <c r="I129">
         <v>4508431050.108109</v>
       </c>
     </row>
@@ -2654,15 +4373,27 @@
         </is>
       </c>
       <c r="B130">
-        <v>10779</v>
+        <v>1795</v>
       </c>
       <c r="C130">
-        <v>23</v>
+        <v>1790</v>
+      </c>
+      <c r="D130">
+        <v>1258</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>3344</v>
       </c>
       <c r="F130">
+        <v>195</v>
+      </c>
+      <c r="G130">
+        <v>1863</v>
+      </c>
+      <c r="H130">
+        <v>534</v>
+      </c>
+      <c r="I130">
         <v>12687530322.11688</v>
       </c>
     </row>
@@ -2673,12 +4404,27 @@
         </is>
       </c>
       <c r="B131">
-        <v>3475</v>
+        <v>740</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>578</v>
+      </c>
+      <c r="D131">
+        <v>414</v>
+      </c>
+      <c r="E131">
+        <v>950</v>
       </c>
       <c r="F131">
+        <v>66</v>
+      </c>
+      <c r="G131">
+        <v>557</v>
+      </c>
+      <c r="H131">
+        <v>170</v>
+      </c>
+      <c r="I131">
         <v>4251702731.259259</v>
       </c>
     </row>
@@ -2689,12 +4435,27 @@
         </is>
       </c>
       <c r="B132">
-        <v>2051</v>
+        <v>320</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>277</v>
+      </c>
+      <c r="D132">
+        <v>301</v>
+      </c>
+      <c r="E132">
+        <v>665</v>
       </c>
       <c r="F132">
+        <v>30</v>
+      </c>
+      <c r="G132">
+        <v>363</v>
+      </c>
+      <c r="H132">
+        <v>95</v>
+      </c>
+      <c r="I132">
         <v>4412680157.8125</v>
       </c>
     </row>
@@ -2705,18 +4466,27 @@
         </is>
       </c>
       <c r="B133">
-        <v>77189</v>
+        <v>18959</v>
       </c>
       <c r="C133">
-        <v>286</v>
+        <v>9295</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>9454</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>18371</v>
       </c>
       <c r="F133">
+        <v>1963</v>
+      </c>
+      <c r="G133">
+        <v>11237</v>
+      </c>
+      <c r="H133">
+        <v>7910</v>
+      </c>
+      <c r="I133">
         <v>72227728923.48532</v>
       </c>
     </row>
@@ -2727,18 +4497,27 @@
         </is>
       </c>
       <c r="B134">
-        <v>35566</v>
+        <v>4871</v>
       </c>
       <c r="C134">
-        <v>24</v>
+        <v>5447</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>3854</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>12202</v>
       </c>
       <c r="F134">
+        <v>675</v>
+      </c>
+      <c r="G134">
+        <v>6807</v>
+      </c>
+      <c r="H134">
+        <v>1710</v>
+      </c>
+      <c r="I134">
         <v>32278209117.66126</v>
       </c>
     </row>
@@ -2749,15 +4528,27 @@
         </is>
       </c>
       <c r="B135">
-        <v>26853</v>
+        <v>3516</v>
       </c>
       <c r="C135">
-        <v>16</v>
+        <v>3928</v>
+      </c>
+      <c r="D135">
+        <v>3172</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>9006</v>
       </c>
       <c r="F135">
+        <v>687</v>
+      </c>
+      <c r="G135">
+        <v>5223</v>
+      </c>
+      <c r="H135">
+        <v>1321</v>
+      </c>
+      <c r="I135">
         <v>25641323295.63996</v>
       </c>
     </row>
@@ -2768,12 +4559,27 @@
         </is>
       </c>
       <c r="B136">
-        <v>1530</v>
+        <v>259</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>236</v>
+      </c>
+      <c r="D136">
+        <v>198</v>
+      </c>
+      <c r="E136">
+        <v>434</v>
       </c>
       <c r="F136">
+        <v>36</v>
+      </c>
+      <c r="G136">
+        <v>286</v>
+      </c>
+      <c r="H136">
+        <v>81</v>
+      </c>
+      <c r="I136">
         <v>2469551785.256198</v>
       </c>
     </row>
@@ -2784,15 +4590,27 @@
         </is>
       </c>
       <c r="B137">
-        <v>6484</v>
+        <v>901</v>
       </c>
       <c r="C137">
-        <v>15</v>
+        <v>960</v>
+      </c>
+      <c r="D137">
+        <v>694</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>2206</v>
       </c>
       <c r="F137">
+        <v>141</v>
+      </c>
+      <c r="G137">
+        <v>1246</v>
+      </c>
+      <c r="H137">
+        <v>336</v>
+      </c>
+      <c r="I137">
         <v>5651905803.349999</v>
       </c>
     </row>
@@ -2803,15 +4621,27 @@
         </is>
       </c>
       <c r="B138">
-        <v>13780</v>
+        <v>2129</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1995</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>1527</v>
+      </c>
+      <c r="E138">
+        <v>3963</v>
       </c>
       <c r="F138">
+        <v>243</v>
+      </c>
+      <c r="G138">
+        <v>3105</v>
+      </c>
+      <c r="H138">
+        <v>818</v>
+      </c>
+      <c r="I138">
         <v>12339953990.03219</v>
       </c>
     </row>
@@ -2822,18 +4652,27 @@
         </is>
       </c>
       <c r="B139">
-        <v>14648</v>
+        <v>1985</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>2186</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>1601</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>4678</v>
       </c>
       <c r="F139">
+        <v>316</v>
+      </c>
+      <c r="G139">
+        <v>3091</v>
+      </c>
+      <c r="H139">
+        <v>791</v>
+      </c>
+      <c r="I139">
         <v>12561435650.57143</v>
       </c>
     </row>
@@ -2844,12 +4683,27 @@
         </is>
       </c>
       <c r="B140">
-        <v>41973</v>
+        <v>6083</v>
       </c>
       <c r="C140">
-        <v>21</v>
+        <v>5807</v>
+      </c>
+      <c r="D140">
+        <v>5085</v>
+      </c>
+      <c r="E140">
+        <v>15251</v>
       </c>
       <c r="F140">
+        <v>968</v>
+      </c>
+      <c r="G140">
+        <v>6994</v>
+      </c>
+      <c r="H140">
+        <v>1785</v>
+      </c>
+      <c r="I140">
         <v>36167321662.04082</v>
       </c>
     </row>
@@ -2860,12 +4714,27 @@
         </is>
       </c>
       <c r="B141">
-        <v>3124</v>
+        <v>491</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>538</v>
+      </c>
+      <c r="D141">
+        <v>342</v>
+      </c>
+      <c r="E141">
+        <v>1018</v>
       </c>
       <c r="F141">
+        <v>54</v>
+      </c>
+      <c r="G141">
+        <v>528</v>
+      </c>
+      <c r="H141">
+        <v>153</v>
+      </c>
+      <c r="I141">
         <v>3582304722.907563</v>
       </c>
     </row>
@@ -2876,18 +4745,27 @@
         </is>
       </c>
       <c r="B142">
-        <v>47350</v>
+        <v>6886</v>
       </c>
       <c r="C142">
-        <v>47</v>
+        <v>6855</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>5383</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>14490</v>
       </c>
       <c r="F142">
+        <v>1153</v>
+      </c>
+      <c r="G142">
+        <v>9759</v>
+      </c>
+      <c r="H142">
+        <v>2824</v>
+      </c>
+      <c r="I142">
         <v>48602104063.89241</v>
       </c>
     </row>
@@ -2898,18 +4776,27 @@
         </is>
       </c>
       <c r="B143">
-        <v>16472</v>
+        <v>2816</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>2454</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>1903</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>4828</v>
       </c>
       <c r="F143">
+        <v>272</v>
+      </c>
+      <c r="G143">
+        <v>3258</v>
+      </c>
+      <c r="H143">
+        <v>941</v>
+      </c>
+      <c r="I143">
         <v>15133299927.21429</v>
       </c>
     </row>
@@ -2920,15 +4807,27 @@
         </is>
       </c>
       <c r="B144">
-        <v>28982</v>
+        <v>4110</v>
       </c>
       <c r="C144">
-        <v>18</v>
+        <v>4328</v>
+      </c>
+      <c r="D144">
+        <v>3409</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>8800</v>
       </c>
       <c r="F144">
+        <v>723</v>
+      </c>
+      <c r="G144">
+        <v>5843</v>
+      </c>
+      <c r="H144">
+        <v>1769</v>
+      </c>
+      <c r="I144">
         <v>26380344662.68812</v>
       </c>
     </row>
@@ -2939,18 +4838,27 @@
         </is>
       </c>
       <c r="B145">
-        <v>7277</v>
+        <v>1023</v>
       </c>
       <c r="C145">
-        <v>20</v>
+        <v>926</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>914</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>2270</v>
       </c>
       <c r="F145">
+        <v>146</v>
+      </c>
+      <c r="G145">
+        <v>1580</v>
+      </c>
+      <c r="H145">
+        <v>418</v>
+      </c>
+      <c r="I145">
         <v>6534231082.263414</v>
       </c>
     </row>
@@ -2961,12 +4869,27 @@
         </is>
       </c>
       <c r="B146">
-        <v>8710</v>
+        <v>1332</v>
       </c>
       <c r="C146">
-        <v>37</v>
+        <v>1162</v>
+      </c>
+      <c r="D146">
+        <v>1021</v>
+      </c>
+      <c r="E146">
+        <v>2975</v>
       </c>
       <c r="F146">
+        <v>149</v>
+      </c>
+      <c r="G146">
+        <v>1609</v>
+      </c>
+      <c r="H146">
+        <v>462</v>
+      </c>
+      <c r="I146">
         <v>11466769472.97797</v>
       </c>
     </row>
@@ -2977,15 +4900,27 @@
         </is>
       </c>
       <c r="B147">
-        <v>6423</v>
+        <v>1143</v>
       </c>
       <c r="C147">
-        <v>13</v>
+        <v>975</v>
+      </c>
+      <c r="D147">
+        <v>779</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>1764</v>
       </c>
       <c r="F147">
+        <v>142</v>
+      </c>
+      <c r="G147">
+        <v>1235</v>
+      </c>
+      <c r="H147">
+        <v>385</v>
+      </c>
+      <c r="I147">
         <v>8327773342.247664</v>
       </c>
     </row>
@@ -2996,12 +4931,27 @@
         </is>
       </c>
       <c r="B148">
-        <v>1054</v>
+        <v>188</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="D148">
+        <v>172</v>
+      </c>
+      <c r="E148">
+        <v>315</v>
       </c>
       <c r="F148">
+        <v>26</v>
+      </c>
+      <c r="G148">
+        <v>175</v>
+      </c>
+      <c r="H148">
+        <v>44</v>
+      </c>
+      <c r="I148">
         <v>1284670804.834951</v>
       </c>
     </row>
@@ -3012,12 +4962,27 @@
         </is>
       </c>
       <c r="B149">
-        <v>9581</v>
+        <v>1355</v>
       </c>
       <c r="C149">
-        <v>9</v>
+        <v>1283</v>
+      </c>
+      <c r="D149">
+        <v>1173</v>
+      </c>
+      <c r="E149">
+        <v>3217</v>
       </c>
       <c r="F149">
+        <v>138</v>
+      </c>
+      <c r="G149">
+        <v>1975</v>
+      </c>
+      <c r="H149">
+        <v>440</v>
+      </c>
+      <c r="I149">
         <v>8488900056.187014</v>
       </c>
     </row>
@@ -3028,15 +4993,27 @@
         </is>
       </c>
       <c r="B150">
-        <v>6116</v>
+        <v>1004</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>852</v>
+      </c>
+      <c r="D150">
+        <v>774</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="F150">
+        <v>128</v>
+      </c>
+      <c r="G150">
+        <v>1070</v>
+      </c>
+      <c r="H150">
+        <v>291</v>
+      </c>
+      <c r="I150">
         <v>4840107032.853108</v>
       </c>
     </row>
@@ -3047,15 +5024,27 @@
         </is>
       </c>
       <c r="B151">
-        <v>1262</v>
+        <v>257</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="E151">
+        <v>354</v>
       </c>
       <c r="F151">
+        <v>32</v>
+      </c>
+      <c r="G151">
+        <v>205</v>
+      </c>
+      <c r="H151">
+        <v>62</v>
+      </c>
+      <c r="I151">
         <v>2305775205.712871</v>
       </c>
     </row>
@@ -3066,18 +5055,27 @@
         </is>
       </c>
       <c r="B152">
-        <v>48824</v>
+        <v>7723</v>
       </c>
       <c r="C152">
-        <v>84</v>
+        <v>6982</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>5838</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>15902</v>
       </c>
       <c r="F152">
+        <v>1054</v>
+      </c>
+      <c r="G152">
+        <v>8658</v>
+      </c>
+      <c r="H152">
+        <v>2667</v>
+      </c>
+      <c r="I152">
         <v>60441208918.49519</v>
       </c>
     </row>
@@ -3088,15 +5086,27 @@
         </is>
       </c>
       <c r="B153">
-        <v>714</v>
+        <v>155</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="E153">
+        <v>159</v>
       </c>
       <c r="F153">
+        <v>13</v>
+      </c>
+      <c r="G153">
+        <v>131</v>
+      </c>
+      <c r="H153">
+        <v>46</v>
+      </c>
+      <c r="I153">
         <v>781935233.2765957</v>
       </c>
     </row>
@@ -3107,15 +5117,27 @@
         </is>
       </c>
       <c r="B154">
-        <v>7052</v>
+        <v>1109</v>
       </c>
       <c r="C154">
-        <v>12</v>
+        <v>1042</v>
+      </c>
+      <c r="D154">
+        <v>825</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>2324</v>
       </c>
       <c r="F154">
+        <v>109</v>
+      </c>
+      <c r="G154">
+        <v>1317</v>
+      </c>
+      <c r="H154">
+        <v>326</v>
+      </c>
+      <c r="I154">
         <v>6433682619.874373</v>
       </c>
     </row>
@@ -3126,12 +5148,27 @@
         </is>
       </c>
       <c r="B155">
-        <v>5427</v>
+        <v>930</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>836</v>
+      </c>
+      <c r="D155">
+        <v>712</v>
+      </c>
+      <c r="E155">
+        <v>1536</v>
       </c>
       <c r="F155">
+        <v>93</v>
+      </c>
+      <c r="G155">
+        <v>1029</v>
+      </c>
+      <c r="H155">
+        <v>291</v>
+      </c>
+      <c r="I155">
         <v>5024717381.801653</v>
       </c>
     </row>
@@ -3142,12 +5179,27 @@
         </is>
       </c>
       <c r="B156">
-        <v>7639</v>
+        <v>1195</v>
       </c>
       <c r="C156">
-        <v>20</v>
+        <v>1144</v>
+      </c>
+      <c r="D156">
+        <v>842</v>
+      </c>
+      <c r="E156">
+        <v>2295</v>
       </c>
       <c r="F156">
+        <v>168</v>
+      </c>
+      <c r="G156">
+        <v>1528</v>
+      </c>
+      <c r="H156">
+        <v>467</v>
+      </c>
+      <c r="I156">
         <v>7299407611.404624</v>
       </c>
     </row>
@@ -3158,18 +5210,27 @@
         </is>
       </c>
       <c r="B157">
-        <v>7266</v>
+        <v>1132</v>
       </c>
       <c r="C157">
-        <v>21</v>
+        <v>1080</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>781</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>2434</v>
       </c>
       <c r="F157">
+        <v>147</v>
+      </c>
+      <c r="G157">
+        <v>1389</v>
+      </c>
+      <c r="H157">
+        <v>303</v>
+      </c>
+      <c r="I157">
         <v>7697899431.045752</v>
       </c>
     </row>
@@ -3180,12 +5241,27 @@
         </is>
       </c>
       <c r="B158">
-        <v>1947</v>
+        <v>314</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>278</v>
+      </c>
+      <c r="D158">
+        <v>220</v>
+      </c>
+      <c r="E158">
+        <v>600</v>
       </c>
       <c r="F158">
+        <v>46</v>
+      </c>
+      <c r="G158">
+        <v>390</v>
+      </c>
+      <c r="H158">
+        <v>99</v>
+      </c>
+      <c r="I158">
         <v>1916060575.55914</v>
       </c>
     </row>
@@ -3196,12 +5272,27 @@
         </is>
       </c>
       <c r="B159">
-        <v>645</v>
+        <v>123</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="D159">
+        <v>91</v>
+      </c>
+      <c r="E159">
+        <v>154</v>
       </c>
       <c r="F159">
+        <v>19</v>
+      </c>
+      <c r="G159">
+        <v>114</v>
+      </c>
+      <c r="H159">
+        <v>44</v>
+      </c>
+      <c r="I159">
         <v>784682868</v>
       </c>
     </row>
@@ -3212,12 +5303,27 @@
         </is>
       </c>
       <c r="B160">
-        <v>1840</v>
+        <v>281</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>284</v>
+      </c>
+      <c r="D160">
+        <v>247</v>
+      </c>
+      <c r="E160">
+        <v>558</v>
       </c>
       <c r="F160">
+        <v>31</v>
+      </c>
+      <c r="G160">
+        <v>341</v>
+      </c>
+      <c r="H160">
+        <v>98</v>
+      </c>
+      <c r="I160">
         <v>1935917805.504132</v>
       </c>
     </row>
@@ -3228,12 +5334,27 @@
         </is>
       </c>
       <c r="B161">
-        <v>1002</v>
+        <v>212</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>161</v>
+      </c>
+      <c r="D161">
+        <v>117</v>
+      </c>
+      <c r="E161">
+        <v>245</v>
       </c>
       <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161">
+        <v>190</v>
+      </c>
+      <c r="H161">
+        <v>60</v>
+      </c>
+      <c r="I161">
         <v>705390056</v>
       </c>
     </row>
@@ -3244,12 +5365,27 @@
         </is>
       </c>
       <c r="B162">
-        <v>2624</v>
+        <v>456</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>484</v>
+      </c>
+      <c r="D162">
+        <v>237</v>
+      </c>
+      <c r="E162">
+        <v>721</v>
       </c>
       <c r="F162">
+        <v>60</v>
+      </c>
+      <c r="G162">
+        <v>488</v>
+      </c>
+      <c r="H162">
+        <v>178</v>
+      </c>
+      <c r="I162">
         <v>3454949584.261682</v>
       </c>
     </row>
@@ -3260,12 +5396,27 @@
         </is>
       </c>
       <c r="B163">
-        <v>4102</v>
+        <v>787</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>600</v>
+      </c>
+      <c r="D163">
+        <v>538</v>
+      </c>
+      <c r="E163">
+        <v>1157</v>
       </c>
       <c r="F163">
+        <v>68</v>
+      </c>
+      <c r="G163">
+        <v>719</v>
+      </c>
+      <c r="H163">
+        <v>233</v>
+      </c>
+      <c r="I163">
         <v>3035048396.831683</v>
       </c>
     </row>
@@ -3276,15 +5427,27 @@
         </is>
       </c>
       <c r="B164">
-        <v>4267</v>
+        <v>823</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>619</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>536</v>
+      </c>
+      <c r="E164">
+        <v>1190</v>
       </c>
       <c r="F164">
+        <v>71</v>
+      </c>
+      <c r="G164">
+        <v>799</v>
+      </c>
+      <c r="H164">
+        <v>229</v>
+      </c>
+      <c r="I164">
         <v>4693613938.439025</v>
       </c>
     </row>
@@ -3295,18 +5458,27 @@
         </is>
       </c>
       <c r="B165">
-        <v>88542</v>
+        <v>16913</v>
       </c>
       <c r="C165">
-        <v>203</v>
+        <v>11889</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>10850</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>25114</v>
       </c>
       <c r="F165">
+        <v>2422</v>
+      </c>
+      <c r="G165">
+        <v>14646</v>
+      </c>
+      <c r="H165">
+        <v>6708</v>
+      </c>
+      <c r="I165">
         <v>83174794799.05223</v>
       </c>
     </row>
@@ -3317,15 +5489,27 @@
         </is>
       </c>
       <c r="B166">
-        <v>4208</v>
+        <v>697</v>
       </c>
       <c r="C166">
-        <v>10</v>
+        <v>626</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>461</v>
+      </c>
+      <c r="E166">
+        <v>1173</v>
       </c>
       <c r="F166">
+        <v>112</v>
+      </c>
+      <c r="G166">
+        <v>869</v>
+      </c>
+      <c r="H166">
+        <v>270</v>
+      </c>
+      <c r="I166">
         <v>5824543338.885417</v>
       </c>
     </row>
@@ -3336,18 +5520,27 @@
         </is>
       </c>
       <c r="B167">
-        <v>2953</v>
+        <v>577</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>416</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>372</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>771</v>
       </c>
       <c r="F167">
+        <v>72</v>
+      </c>
+      <c r="G167">
+        <v>558</v>
+      </c>
+      <c r="H167">
+        <v>187</v>
+      </c>
+      <c r="I167">
         <v>4330659433.269231</v>
       </c>
     </row>
@@ -3358,15 +5551,27 @@
         </is>
       </c>
       <c r="B168">
-        <v>749</v>
+        <v>162</v>
       </c>
       <c r="C168">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="E168">
+        <v>205</v>
       </c>
       <c r="F168">
+        <v>11</v>
+      </c>
+      <c r="G168">
+        <v>115</v>
+      </c>
+      <c r="H168">
+        <v>45</v>
+      </c>
+      <c r="I168">
         <v>1529109215.072072</v>
       </c>
     </row>
@@ -3377,12 +5582,27 @@
         </is>
       </c>
       <c r="B169">
-        <v>2512</v>
+        <v>412</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>366</v>
+      </c>
+      <c r="D169">
+        <v>252</v>
+      </c>
+      <c r="E169">
+        <v>749</v>
       </c>
       <c r="F169">
+        <v>46</v>
+      </c>
+      <c r="G169">
+        <v>547</v>
+      </c>
+      <c r="H169">
+        <v>140</v>
+      </c>
+      <c r="I169">
         <v>7518158340.131867</v>
       </c>
     </row>
@@ -3393,15 +5613,27 @@
         </is>
       </c>
       <c r="B170">
-        <v>1297</v>
+        <v>209</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="E170">
+        <v>398</v>
       </c>
       <c r="F170">
+        <v>21</v>
+      </c>
+      <c r="G170">
+        <v>290</v>
+      </c>
+      <c r="H170">
+        <v>77</v>
+      </c>
+      <c r="I170">
         <v>2930258101.934426</v>
       </c>
     </row>
@@ -3412,12 +5644,27 @@
         </is>
       </c>
       <c r="B171">
-        <v>3514</v>
+        <v>717</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>579</v>
+      </c>
+      <c r="D171">
+        <v>447</v>
+      </c>
+      <c r="E171">
+        <v>887</v>
       </c>
       <c r="F171">
+        <v>88</v>
+      </c>
+      <c r="G171">
+        <v>611</v>
+      </c>
+      <c r="H171">
+        <v>185</v>
+      </c>
+      <c r="I171">
         <v>3670206244.848485</v>
       </c>
     </row>
@@ -3428,12 +5675,27 @@
         </is>
       </c>
       <c r="B172">
-        <v>8795</v>
+        <v>1402</v>
       </c>
       <c r="C172">
-        <v>14</v>
+        <v>1296</v>
+      </c>
+      <c r="D172">
+        <v>983</v>
+      </c>
+      <c r="E172">
+        <v>2758</v>
       </c>
       <c r="F172">
+        <v>186</v>
+      </c>
+      <c r="G172">
+        <v>1685</v>
+      </c>
+      <c r="H172">
+        <v>485</v>
+      </c>
+      <c r="I172">
         <v>11267725602.13907</v>
       </c>
     </row>
@@ -3444,12 +5706,27 @@
         </is>
       </c>
       <c r="B173">
-        <v>5692</v>
+        <v>1063</v>
       </c>
       <c r="C173">
-        <v>7</v>
+        <v>867</v>
+      </c>
+      <c r="D173">
+        <v>727</v>
+      </c>
+      <c r="E173">
+        <v>1593</v>
       </c>
       <c r="F173">
+        <v>105</v>
+      </c>
+      <c r="G173">
+        <v>1001</v>
+      </c>
+      <c r="H173">
+        <v>336</v>
+      </c>
+      <c r="I173">
         <v>5049235444.787401</v>
       </c>
     </row>
@@ -3460,15 +5737,27 @@
         </is>
       </c>
       <c r="B174">
-        <v>930</v>
+        <v>187</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="E174">
+        <v>245</v>
       </c>
       <c r="F174">
+        <v>23</v>
+      </c>
+      <c r="G174">
+        <v>165</v>
+      </c>
+      <c r="H174">
+        <v>66</v>
+      </c>
+      <c r="I174">
         <v>1301137941.446808</v>
       </c>
     </row>
@@ -3479,12 +5768,27 @@
         </is>
       </c>
       <c r="B175">
-        <v>5799</v>
+        <v>910</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>921</v>
+      </c>
+      <c r="D175">
+        <v>471</v>
+      </c>
+      <c r="E175">
+        <v>1731</v>
       </c>
       <c r="F175">
+        <v>136</v>
+      </c>
+      <c r="G175">
+        <v>1249</v>
+      </c>
+      <c r="H175">
+        <v>381</v>
+      </c>
+      <c r="I175">
         <v>7867935675.862068</v>
       </c>
     </row>
@@ -3495,12 +5799,27 @@
         </is>
       </c>
       <c r="B176">
-        <v>14497</v>
+        <v>2094</v>
       </c>
       <c r="C176">
-        <v>8</v>
+        <v>2208</v>
+      </c>
+      <c r="D176">
+        <v>1505</v>
+      </c>
+      <c r="E176">
+        <v>4840</v>
       </c>
       <c r="F176">
+        <v>312</v>
+      </c>
+      <c r="G176">
+        <v>2850</v>
+      </c>
+      <c r="H176">
+        <v>688</v>
+      </c>
+      <c r="I176">
         <v>21191399108.34192</v>
       </c>
     </row>
@@ -3511,12 +5830,27 @@
         </is>
       </c>
       <c r="B177">
-        <v>1178</v>
+        <v>191</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D177">
+        <v>152</v>
+      </c>
+      <c r="E177">
+        <v>352</v>
       </c>
       <c r="F177">
+        <v>32</v>
+      </c>
+      <c r="G177">
+        <v>215</v>
+      </c>
+      <c r="H177">
+        <v>76</v>
+      </c>
+      <c r="I177">
         <v>1799419623.697917</v>
       </c>
     </row>
@@ -3527,15 +5861,27 @@
         </is>
       </c>
       <c r="B178">
-        <v>5449</v>
+        <v>901</v>
       </c>
       <c r="C178">
-        <v>19</v>
+        <v>888</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>582</v>
+      </c>
+      <c r="E178">
+        <v>1533</v>
       </c>
       <c r="F178">
+        <v>138</v>
+      </c>
+      <c r="G178">
+        <v>1067</v>
+      </c>
+      <c r="H178">
+        <v>340</v>
+      </c>
+      <c r="I178">
         <v>6204576082.102041</v>
       </c>
     </row>
@@ -3546,15 +5892,27 @@
         </is>
       </c>
       <c r="B179">
-        <v>5928</v>
+        <v>1131</v>
       </c>
       <c r="C179">
-        <v>99</v>
+        <v>761</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>787</v>
+      </c>
+      <c r="E179">
+        <v>1688</v>
       </c>
       <c r="F179">
+        <v>197</v>
+      </c>
+      <c r="G179">
+        <v>922</v>
+      </c>
+      <c r="H179">
+        <v>442</v>
+      </c>
+      <c r="I179">
         <v>7443587942.360465</v>
       </c>
     </row>
@@ -3565,15 +5923,27 @@
         </is>
       </c>
       <c r="B180">
-        <v>950</v>
+        <v>211</v>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="E180">
+        <v>222</v>
       </c>
       <c r="F180">
+        <v>19</v>
+      </c>
+      <c r="G180">
+        <v>167</v>
+      </c>
+      <c r="H180">
+        <v>50</v>
+      </c>
+      <c r="I180">
         <v>2856420490.588235</v>
       </c>
     </row>
@@ -3584,12 +5954,27 @@
         </is>
       </c>
       <c r="B181">
-        <v>1903</v>
+        <v>385</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>265</v>
+      </c>
+      <c r="D181">
+        <v>253</v>
+      </c>
+      <c r="E181">
+        <v>555</v>
       </c>
       <c r="F181">
+        <v>27</v>
+      </c>
+      <c r="G181">
+        <v>309</v>
+      </c>
+      <c r="H181">
+        <v>109</v>
+      </c>
+      <c r="I181">
         <v>3380311967.727273</v>
       </c>
     </row>
@@ -3600,12 +5985,27 @@
         </is>
       </c>
       <c r="B182">
-        <v>1341</v>
+        <v>281</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>158</v>
+      </c>
+      <c r="D182">
+        <v>196</v>
+      </c>
+      <c r="E182">
+        <v>375</v>
       </c>
       <c r="F182">
+        <v>31</v>
+      </c>
+      <c r="G182">
+        <v>221</v>
+      </c>
+      <c r="H182">
+        <v>79</v>
+      </c>
+      <c r="I182">
         <v>2135976053.663717</v>
       </c>
     </row>
@@ -3616,12 +6016,27 @@
         </is>
       </c>
       <c r="B183">
-        <v>5122</v>
+        <v>855</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>740</v>
+      </c>
+      <c r="D183">
+        <v>597</v>
+      </c>
+      <c r="E183">
+        <v>1763</v>
       </c>
       <c r="F183">
+        <v>100</v>
+      </c>
+      <c r="G183">
+        <v>815</v>
+      </c>
+      <c r="H183">
+        <v>252</v>
+      </c>
+      <c r="I183">
         <v>4860243130.698493</v>
       </c>
     </row>
@@ -3632,15 +6047,27 @@
         </is>
       </c>
       <c r="B184">
-        <v>12007</v>
+        <v>2136</v>
       </c>
       <c r="C184">
-        <v>71</v>
+        <v>1639</v>
+      </c>
+      <c r="D184">
+        <v>1510</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>3577</v>
       </c>
       <c r="F184">
+        <v>307</v>
+      </c>
+      <c r="G184">
+        <v>2112</v>
+      </c>
+      <c r="H184">
+        <v>726</v>
+      </c>
+      <c r="I184">
         <v>13650235813.63636</v>
       </c>
     </row>
@@ -3651,15 +6078,27 @@
         </is>
       </c>
       <c r="B185">
-        <v>1287</v>
+        <v>201</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="E185">
+        <v>402</v>
       </c>
       <c r="F185">
+        <v>24</v>
+      </c>
+      <c r="G185">
+        <v>271</v>
+      </c>
+      <c r="H185">
+        <v>80</v>
+      </c>
+      <c r="I185">
         <v>2940207311.456311</v>
       </c>
     </row>
@@ -3670,18 +6109,27 @@
         </is>
       </c>
       <c r="B186">
-        <v>15747</v>
+        <v>2549</v>
       </c>
       <c r="C186">
-        <v>43</v>
+        <v>2239</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2012</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>4457</v>
       </c>
       <c r="F186">
+        <v>379</v>
+      </c>
+      <c r="G186">
+        <v>3212</v>
+      </c>
+      <c r="H186">
+        <v>899</v>
+      </c>
+      <c r="I186">
         <v>14296297282.41379</v>
       </c>
     </row>
@@ -3692,12 +6140,27 @@
         </is>
       </c>
       <c r="B187">
-        <v>6035</v>
+        <v>1051</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>893</v>
+      </c>
+      <c r="D187">
+        <v>706</v>
+      </c>
+      <c r="E187">
+        <v>1683</v>
       </c>
       <c r="F187">
+        <v>123</v>
+      </c>
+      <c r="G187">
+        <v>1203</v>
+      </c>
+      <c r="H187">
+        <v>376</v>
+      </c>
+      <c r="I187">
         <v>6098134776.373984</v>
       </c>
     </row>
@@ -3708,12 +6171,27 @@
         </is>
       </c>
       <c r="B188">
-        <v>4522</v>
+        <v>907</v>
       </c>
       <c r="C188">
-        <v>5</v>
+        <v>663</v>
+      </c>
+      <c r="D188">
+        <v>683</v>
+      </c>
+      <c r="E188">
+        <v>1114</v>
       </c>
       <c r="F188">
+        <v>86</v>
+      </c>
+      <c r="G188">
+        <v>819</v>
+      </c>
+      <c r="H188">
+        <v>250</v>
+      </c>
+      <c r="I188">
         <v>4084643011.441667</v>
       </c>
     </row>
@@ -3724,12 +6202,27 @@
         </is>
       </c>
       <c r="B189">
-        <v>1247</v>
+        <v>250</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="D189">
+        <v>160</v>
+      </c>
+      <c r="E189">
+        <v>307</v>
       </c>
       <c r="F189">
+        <v>25</v>
+      </c>
+      <c r="G189">
+        <v>248</v>
+      </c>
+      <c r="H189">
+        <v>78</v>
+      </c>
+      <c r="I189">
         <v>2072995480.576087</v>
       </c>
     </row>
@@ -3740,15 +6233,27 @@
         </is>
       </c>
       <c r="B190">
-        <v>1248</v>
+        <v>288</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="E190">
+        <v>332</v>
       </c>
       <c r="F190">
+        <v>30</v>
+      </c>
+      <c r="G190">
+        <v>179</v>
+      </c>
+      <c r="H190">
+        <v>80</v>
+      </c>
+      <c r="I190">
         <v>2568496128.444445</v>
       </c>
     </row>
@@ -3759,12 +6264,27 @@
         </is>
       </c>
       <c r="B191">
-        <v>1488</v>
+        <v>279</v>
       </c>
       <c r="C191">
-        <v>8</v>
+        <v>215</v>
+      </c>
+      <c r="D191">
+        <v>180</v>
+      </c>
+      <c r="E191">
+        <v>362</v>
       </c>
       <c r="F191">
+        <v>28</v>
+      </c>
+      <c r="G191">
+        <v>304</v>
+      </c>
+      <c r="H191">
+        <v>120</v>
+      </c>
+      <c r="I191">
         <v>1547086779.615385</v>
       </c>
     </row>
@@ -3775,15 +6295,27 @@
         </is>
       </c>
       <c r="B192">
-        <v>1432</v>
+        <v>321</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="E192">
+        <v>395</v>
       </c>
       <c r="F192">
+        <v>38</v>
+      </c>
+      <c r="G192">
+        <v>233</v>
+      </c>
+      <c r="H192">
+        <v>80</v>
+      </c>
+      <c r="I192">
         <v>2697526158.845361</v>
       </c>
     </row>
@@ -3794,12 +6326,27 @@
         </is>
       </c>
       <c r="B193">
-        <v>2607</v>
+        <v>491</v>
       </c>
       <c r="C193">
-        <v>9</v>
+        <v>378</v>
+      </c>
+      <c r="D193">
+        <v>377</v>
+      </c>
+      <c r="E193">
+        <v>690</v>
       </c>
       <c r="F193">
+        <v>68</v>
+      </c>
+      <c r="G193">
+        <v>443</v>
+      </c>
+      <c r="H193">
+        <v>160</v>
+      </c>
+      <c r="I193">
         <v>2757928012.735043</v>
       </c>
     </row>
@@ -3810,15 +6357,27 @@
         </is>
       </c>
       <c r="B194">
-        <v>2819</v>
+        <v>486</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>432</v>
+      </c>
+      <c r="D194">
+        <v>352</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>803</v>
       </c>
       <c r="F194">
+        <v>63</v>
+      </c>
+      <c r="G194">
+        <v>529</v>
+      </c>
+      <c r="H194">
+        <v>154</v>
+      </c>
+      <c r="I194">
         <v>2726714089.622642</v>
       </c>
     </row>
@@ -3829,15 +6388,27 @@
         </is>
       </c>
       <c r="B195">
-        <v>4919</v>
+        <v>1023</v>
       </c>
       <c r="C195">
-        <v>11</v>
+        <v>743</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>635</v>
+      </c>
+      <c r="E195">
+        <v>1183</v>
       </c>
       <c r="F195">
+        <v>100</v>
+      </c>
+      <c r="G195">
+        <v>936</v>
+      </c>
+      <c r="H195">
+        <v>299</v>
+      </c>
+      <c r="I195">
         <v>4863416658.964286</v>
       </c>
     </row>
@@ -3848,12 +6419,27 @@
         </is>
       </c>
       <c r="B196">
-        <v>8191</v>
+        <v>1411</v>
       </c>
       <c r="C196">
-        <v>22</v>
+        <v>1228</v>
+      </c>
+      <c r="D196">
+        <v>1042</v>
+      </c>
+      <c r="E196">
+        <v>2141</v>
       </c>
       <c r="F196">
+        <v>200</v>
+      </c>
+      <c r="G196">
+        <v>1627</v>
+      </c>
+      <c r="H196">
+        <v>542</v>
+      </c>
+      <c r="I196">
         <v>7723760969.623825</v>
       </c>
     </row>
@@ -3864,18 +6450,27 @@
         </is>
       </c>
       <c r="B197">
-        <v>71175</v>
+        <v>12314</v>
       </c>
       <c r="C197">
-        <v>194</v>
+        <v>9208</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>8323</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>21824</v>
       </c>
       <c r="F197">
+        <v>2240</v>
+      </c>
+      <c r="G197">
+        <v>12580</v>
+      </c>
+      <c r="H197">
+        <v>4686</v>
+      </c>
+      <c r="I197">
         <v>74854925754.32497</v>
       </c>
     </row>
@@ -3886,15 +6481,27 @@
         </is>
       </c>
       <c r="B198">
-        <v>5148</v>
+        <v>841</v>
       </c>
       <c r="C198">
-        <v>18</v>
+        <v>730</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>566</v>
+      </c>
+      <c r="E198">
+        <v>1657</v>
       </c>
       <c r="F198">
+        <v>107</v>
+      </c>
+      <c r="G198">
+        <v>957</v>
+      </c>
+      <c r="H198">
+        <v>290</v>
+      </c>
+      <c r="I198">
         <v>9545646862.818182</v>
       </c>
     </row>
@@ -3905,12 +6512,27 @@
         </is>
       </c>
       <c r="B199">
-        <v>2476</v>
+        <v>436</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="D199">
+        <v>329</v>
+      </c>
+      <c r="E199">
+        <v>693</v>
       </c>
       <c r="F199">
+        <v>71</v>
+      </c>
+      <c r="G199">
+        <v>483</v>
+      </c>
+      <c r="H199">
+        <v>164</v>
+      </c>
+      <c r="I199">
         <v>2742371891.25</v>
       </c>
     </row>
@@ -3921,15 +6543,27 @@
         </is>
       </c>
       <c r="B200">
-        <v>4373</v>
+        <v>761</v>
       </c>
       <c r="C200">
-        <v>19</v>
+        <v>532</v>
+      </c>
+      <c r="D200">
+        <v>611</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>1362</v>
       </c>
       <c r="F200">
+        <v>99</v>
+      </c>
+      <c r="G200">
+        <v>768</v>
+      </c>
+      <c r="H200">
+        <v>240</v>
+      </c>
+      <c r="I200">
         <v>5188291726.32</v>
       </c>
     </row>
@@ -3940,15 +6574,27 @@
         </is>
       </c>
       <c r="B201">
-        <v>2702</v>
+        <v>458</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>380</v>
+      </c>
+      <c r="D201">
+        <v>328</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>827</v>
       </c>
       <c r="F201">
+        <v>73</v>
+      </c>
+      <c r="G201">
+        <v>473</v>
+      </c>
+      <c r="H201">
+        <v>163</v>
+      </c>
+      <c r="I201">
         <v>3980600731.207547</v>
       </c>
     </row>
@@ -3959,15 +6605,27 @@
         </is>
       </c>
       <c r="B202">
-        <v>4455</v>
+        <v>632</v>
       </c>
       <c r="C202">
-        <v>11</v>
+        <v>535</v>
+      </c>
+      <c r="D202">
+        <v>539</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>1398</v>
       </c>
       <c r="F202">
+        <v>97</v>
+      </c>
+      <c r="G202">
+        <v>1015</v>
+      </c>
+      <c r="H202">
+        <v>239</v>
+      </c>
+      <c r="I202">
         <v>4422233282.908257</v>
       </c>
     </row>
@@ -3978,12 +6636,27 @@
         </is>
       </c>
       <c r="B203">
-        <v>2286</v>
+        <v>418</v>
       </c>
       <c r="C203">
-        <v>9</v>
+        <v>312</v>
+      </c>
+      <c r="D203">
+        <v>329</v>
+      </c>
+      <c r="E203">
+        <v>608</v>
       </c>
       <c r="F203">
+        <v>44</v>
+      </c>
+      <c r="G203">
+        <v>421</v>
+      </c>
+      <c r="H203">
+        <v>154</v>
+      </c>
+      <c r="I203">
         <v>3825279049.960784</v>
       </c>
     </row>
@@ -3994,12 +6667,27 @@
         </is>
       </c>
       <c r="B204">
-        <v>10360</v>
+        <v>1741</v>
       </c>
       <c r="C204">
-        <v>87</v>
+        <v>1280</v>
+      </c>
+      <c r="D204">
+        <v>1396</v>
+      </c>
+      <c r="E204">
+        <v>3199</v>
       </c>
       <c r="F204">
+        <v>271</v>
+      </c>
+      <c r="G204">
+        <v>1841</v>
+      </c>
+      <c r="H204">
+        <v>632</v>
+      </c>
+      <c r="I204">
         <v>13920663785.99293</v>
       </c>
     </row>
@@ -4010,18 +6698,27 @@
         </is>
       </c>
       <c r="B205">
-        <v>11260</v>
+        <v>2001</v>
       </c>
       <c r="C205">
-        <v>76</v>
+        <v>1494</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>1474</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>3224</v>
       </c>
       <c r="F205">
+        <v>379</v>
+      </c>
+      <c r="G205">
+        <v>1962</v>
+      </c>
+      <c r="H205">
+        <v>726</v>
+      </c>
+      <c r="I205">
         <v>15304799117.87912</v>
       </c>
     </row>
@@ -4032,15 +6729,27 @@
         </is>
       </c>
       <c r="B206">
-        <v>9452</v>
+        <v>1647</v>
       </c>
       <c r="C206">
-        <v>30</v>
+        <v>1410</v>
+      </c>
+      <c r="D206">
+        <v>1235</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>2637</v>
       </c>
       <c r="F206">
+        <v>238</v>
+      </c>
+      <c r="G206">
+        <v>1751</v>
+      </c>
+      <c r="H206">
+        <v>534</v>
+      </c>
+      <c r="I206">
         <v>8960055930.012501</v>
       </c>
     </row>
@@ -4051,12 +6760,27 @@
         </is>
       </c>
       <c r="B207">
-        <v>1844</v>
+        <v>310</v>
       </c>
       <c r="C207">
-        <v>7</v>
+        <v>245</v>
+      </c>
+      <c r="D207">
+        <v>232</v>
+      </c>
+      <c r="E207">
+        <v>553</v>
       </c>
       <c r="F207">
+        <v>50</v>
+      </c>
+      <c r="G207">
+        <v>334</v>
+      </c>
+      <c r="H207">
+        <v>120</v>
+      </c>
+      <c r="I207">
         <v>3559637516.804123</v>
       </c>
     </row>
@@ -4067,10 +6791,25 @@
         </is>
       </c>
       <c r="B208">
-        <v>382</v>
+        <v>94</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="D208">
+        <v>41</v>
+      </c>
+      <c r="E208">
+        <v>101</v>
+      </c>
+      <c r="F208">
+        <v>12</v>
+      </c>
+      <c r="G208">
+        <v>52</v>
+      </c>
+      <c r="H208">
+        <v>25</v>
       </c>
     </row>
     <row r="209">
@@ -4080,12 +6819,27 @@
         </is>
       </c>
       <c r="B209">
-        <v>2283</v>
+        <v>328</v>
       </c>
       <c r="C209">
-        <v>31</v>
+        <v>300</v>
+      </c>
+      <c r="D209">
+        <v>276</v>
+      </c>
+      <c r="E209">
+        <v>796</v>
       </c>
       <c r="F209">
+        <v>71</v>
+      </c>
+      <c r="G209">
+        <v>400</v>
+      </c>
+      <c r="H209">
+        <v>112</v>
+      </c>
+      <c r="I209">
         <v>4477578922.854546</v>
       </c>
     </row>
@@ -4096,15 +6850,27 @@
         </is>
       </c>
       <c r="B210">
-        <v>786</v>
+        <v>145</v>
       </c>
       <c r="C210">
-        <v>9</v>
+        <v>111</v>
+      </c>
+      <c r="D210">
+        <v>105</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="F210">
+        <v>23</v>
+      </c>
+      <c r="G210">
+        <v>101</v>
+      </c>
+      <c r="H210">
+        <v>41</v>
+      </c>
+      <c r="I210">
         <v>987644626.8478261</v>
       </c>
     </row>
@@ -4115,18 +6881,27 @@
         </is>
       </c>
       <c r="B211">
-        <v>5991</v>
+        <v>1115</v>
       </c>
       <c r="C211">
-        <v>38</v>
+        <v>812</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>711</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F211">
+        <v>178</v>
+      </c>
+      <c r="G211">
+        <v>862</v>
+      </c>
+      <c r="H211">
+        <v>312</v>
+      </c>
+      <c r="I211">
         <v>6579532876.493617</v>
       </c>
     </row>
@@ -4137,12 +6912,27 @@
         </is>
       </c>
       <c r="B212">
-        <v>892</v>
+        <v>202</v>
       </c>
       <c r="C212">
-        <v>8</v>
+        <v>107</v>
+      </c>
+      <c r="D212">
+        <v>132</v>
+      </c>
+      <c r="E212">
+        <v>248</v>
       </c>
       <c r="F212">
+        <v>16</v>
+      </c>
+      <c r="G212">
+        <v>139</v>
+      </c>
+      <c r="H212">
+        <v>48</v>
+      </c>
+      <c r="I212">
         <v>2572844097.46789</v>
       </c>
     </row>
@@ -4153,12 +6943,27 @@
         </is>
       </c>
       <c r="B213">
-        <v>1096</v>
+        <v>186</v>
       </c>
       <c r="C213">
-        <v>14</v>
+        <v>155</v>
+      </c>
+      <c r="D213">
+        <v>190</v>
+      </c>
+      <c r="E213">
+        <v>295</v>
       </c>
       <c r="F213">
+        <v>38</v>
+      </c>
+      <c r="G213">
+        <v>154</v>
+      </c>
+      <c r="H213">
+        <v>78</v>
+      </c>
+      <c r="I213">
         <v>2996397097.674419</v>
       </c>
     </row>
@@ -4169,15 +6974,27 @@
         </is>
       </c>
       <c r="B214">
-        <v>49852</v>
+        <v>9023</v>
       </c>
       <c r="C214">
-        <v>68</v>
+        <v>6901</v>
+      </c>
+      <c r="D214">
+        <v>6271</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>13896</v>
       </c>
       <c r="F214">
+        <v>1143</v>
+      </c>
+      <c r="G214">
+        <v>9333</v>
+      </c>
+      <c r="H214">
+        <v>3285</v>
+      </c>
+      <c r="I214">
         <v>43850482485.64465</v>
       </c>
     </row>
@@ -4188,12 +7005,27 @@
         </is>
       </c>
       <c r="B215">
-        <v>645</v>
+        <v>104</v>
       </c>
       <c r="C215">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="D215">
+        <v>89</v>
+      </c>
+      <c r="E215">
+        <v>169</v>
       </c>
       <c r="F215">
+        <v>19</v>
+      </c>
+      <c r="G215">
+        <v>142</v>
+      </c>
+      <c r="H215">
+        <v>39</v>
+      </c>
+      <c r="I215">
         <v>2359078293.539823</v>
       </c>
     </row>
@@ -4204,15 +7036,27 @@
         </is>
       </c>
       <c r="B216">
-        <v>4765</v>
+        <v>850</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>665</v>
+      </c>
+      <c r="D216">
+        <v>592</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>1266</v>
       </c>
       <c r="F216">
+        <v>112</v>
+      </c>
+      <c r="G216">
+        <v>1004</v>
+      </c>
+      <c r="H216">
+        <v>276</v>
+      </c>
+      <c r="I216">
         <v>6161043438.428572</v>
       </c>
     </row>
@@ -4223,12 +7067,27 @@
         </is>
       </c>
       <c r="B217">
-        <v>1592</v>
+        <v>255</v>
       </c>
       <c r="C217">
-        <v>9</v>
+        <v>197</v>
+      </c>
+      <c r="D217">
+        <v>200</v>
+      </c>
+      <c r="E217">
+        <v>395</v>
       </c>
       <c r="F217">
+        <v>44</v>
+      </c>
+      <c r="G217">
+        <v>369</v>
+      </c>
+      <c r="H217">
+        <v>132</v>
+      </c>
+      <c r="I217">
         <v>2689725002.827869</v>
       </c>
     </row>
@@ -4239,12 +7098,27 @@
         </is>
       </c>
       <c r="B218">
-        <v>2398</v>
+        <v>447</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>356</v>
+      </c>
+      <c r="D218">
+        <v>309</v>
+      </c>
+      <c r="E218">
+        <v>666</v>
       </c>
       <c r="F218">
+        <v>43</v>
+      </c>
+      <c r="G218">
+        <v>430</v>
+      </c>
+      <c r="H218">
+        <v>147</v>
+      </c>
+      <c r="I218">
         <v>3896715111.067416</v>
       </c>
     </row>
@@ -4255,12 +7129,27 @@
         </is>
       </c>
       <c r="B219">
-        <v>446</v>
+        <v>122</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D219">
+        <v>79</v>
+      </c>
+      <c r="E219">
+        <v>99</v>
       </c>
       <c r="F219">
+        <v>11</v>
+      </c>
+      <c r="G219">
+        <v>60</v>
+      </c>
+      <c r="H219">
+        <v>26</v>
+      </c>
+      <c r="I219">
         <v>1674503801.2</v>
       </c>
     </row>
@@ -4271,12 +7160,27 @@
         </is>
       </c>
       <c r="B220">
-        <v>1550</v>
+        <v>303</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="D220">
+        <v>177</v>
+      </c>
+      <c r="E220">
+        <v>400</v>
       </c>
       <c r="F220">
+        <v>30</v>
+      </c>
+      <c r="G220">
+        <v>328</v>
+      </c>
+      <c r="H220">
+        <v>102</v>
+      </c>
+      <c r="I220">
         <v>1962995434.6875</v>
       </c>
     </row>
@@ -4287,10 +7191,25 @@
         </is>
       </c>
       <c r="B221">
-        <v>607</v>
+        <v>182</v>
       </c>
       <c r="C221">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="D221">
+        <v>76</v>
+      </c>
+      <c r="E221">
+        <v>160</v>
+      </c>
+      <c r="F221">
+        <v>15</v>
+      </c>
+      <c r="G221">
+        <v>73</v>
+      </c>
+      <c r="H221">
+        <v>45</v>
       </c>
     </row>
     <row r="222">
@@ -4300,13 +7219,25 @@
         </is>
       </c>
       <c r="B222">
-        <v>718</v>
+        <v>219</v>
       </c>
       <c r="C222">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="E222">
+        <v>172</v>
+      </c>
+      <c r="F222">
+        <v>14</v>
+      </c>
+      <c r="G222">
+        <v>64</v>
+      </c>
+      <c r="H222">
+        <v>56</v>
       </c>
     </row>
     <row r="223">
@@ -4316,10 +7247,25 @@
         </is>
       </c>
       <c r="B223">
-        <v>1273</v>
+        <v>269</v>
       </c>
       <c r="C223">
-        <v>7</v>
+        <v>167</v>
+      </c>
+      <c r="D223">
+        <v>161</v>
+      </c>
+      <c r="E223">
+        <v>369</v>
+      </c>
+      <c r="F223">
+        <v>40</v>
+      </c>
+      <c r="G223">
+        <v>198</v>
+      </c>
+      <c r="H223">
+        <v>69</v>
       </c>
     </row>
     <row r="224">
@@ -4329,10 +7275,25 @@
         </is>
       </c>
       <c r="B224">
-        <v>437</v>
+        <v>121</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D224">
+        <v>69</v>
+      </c>
+      <c r="E224">
+        <v>127</v>
+      </c>
+      <c r="F224">
+        <v>9</v>
+      </c>
+      <c r="G224">
+        <v>30</v>
+      </c>
+      <c r="H224">
+        <v>29</v>
       </c>
     </row>
     <row r="225">
@@ -4342,18 +7303,27 @@
         </is>
       </c>
       <c r="B225">
-        <v>16713</v>
+        <v>3180</v>
       </c>
       <c r="C225">
-        <v>95</v>
+        <v>2514</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2055</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>4787</v>
       </c>
       <c r="F225">
+        <v>581</v>
+      </c>
+      <c r="G225">
+        <v>2579</v>
+      </c>
+      <c r="H225">
+        <v>1017</v>
+      </c>
+      <c r="I225">
         <v>18912283227.07657</v>
       </c>
     </row>
@@ -4364,15 +7334,27 @@
         </is>
       </c>
       <c r="B226">
-        <v>6639</v>
+        <v>1176</v>
       </c>
       <c r="C226">
-        <v>52</v>
+        <v>973</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>844</v>
+      </c>
+      <c r="E226">
+        <v>1986</v>
       </c>
       <c r="F226">
+        <v>192</v>
+      </c>
+      <c r="G226">
+        <v>1083</v>
+      </c>
+      <c r="H226">
+        <v>385</v>
+      </c>
+      <c r="I226">
         <v>7375332217.99749</v>
       </c>
     </row>
@@ -4383,15 +7365,27 @@
         </is>
       </c>
       <c r="B227">
-        <v>1360</v>
+        <v>315</v>
       </c>
       <c r="C227">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="E227">
+        <v>400</v>
       </c>
       <c r="F227">
+        <v>57</v>
+      </c>
+      <c r="G227">
+        <v>167</v>
+      </c>
+      <c r="H227">
+        <v>85</v>
+      </c>
+      <c r="I227">
         <v>1642095148.673913</v>
       </c>
     </row>
@@ -4402,13 +7396,25 @@
         </is>
       </c>
       <c r="B228">
-        <v>461</v>
+        <v>111</v>
       </c>
       <c r="C228">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="E228">
+        <v>152</v>
+      </c>
+      <c r="F228">
+        <v>17</v>
+      </c>
+      <c r="G228">
+        <v>55</v>
+      </c>
+      <c r="H228">
+        <v>29</v>
       </c>
     </row>
     <row r="229">
@@ -4418,12 +7424,27 @@
         </is>
       </c>
       <c r="B229">
-        <v>1006</v>
+        <v>234</v>
       </c>
       <c r="C229">
-        <v>31</v>
+        <v>155</v>
+      </c>
+      <c r="D229">
+        <v>134</v>
+      </c>
+      <c r="E229">
+        <v>260</v>
       </c>
       <c r="F229">
+        <v>18</v>
+      </c>
+      <c r="G229">
+        <v>116</v>
+      </c>
+      <c r="H229">
+        <v>89</v>
+      </c>
+      <c r="I229">
         <v>1224029691.6</v>
       </c>
     </row>
@@ -4434,12 +7455,27 @@
         </is>
       </c>
       <c r="B230">
-        <v>1138</v>
+        <v>276</v>
       </c>
       <c r="C230">
+        <v>150</v>
+      </c>
+      <c r="D230">
+        <v>154</v>
+      </c>
+      <c r="E230">
+        <v>305</v>
+      </c>
+      <c r="F230">
         <v>26</v>
       </c>
-      <c r="F230">
+      <c r="G230">
+        <v>157</v>
+      </c>
+      <c r="H230">
+        <v>70</v>
+      </c>
+      <c r="I230">
         <v>1622211455.561798</v>
       </c>
     </row>
@@ -4450,18 +7486,27 @@
         </is>
       </c>
       <c r="B231">
-        <v>41348</v>
+        <v>7567</v>
       </c>
       <c r="C231">
-        <v>187</v>
+        <v>5437</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>5619</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>11857</v>
       </c>
       <c r="F231">
+        <v>1363</v>
+      </c>
+      <c r="G231">
+        <v>6892</v>
+      </c>
+      <c r="H231">
+        <v>2613</v>
+      </c>
+      <c r="I231">
         <v>51552266922.41262</v>
       </c>
     </row>
@@ -4472,10 +7517,25 @@
         </is>
       </c>
       <c r="B232">
-        <v>544</v>
+        <v>116</v>
       </c>
       <c r="C232">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="D232">
+        <v>77</v>
+      </c>
+      <c r="E232">
+        <v>227</v>
+      </c>
+      <c r="F232">
+        <v>10</v>
+      </c>
+      <c r="G232">
+        <v>51</v>
+      </c>
+      <c r="H232">
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -4485,15 +7545,27 @@
         </is>
       </c>
       <c r="B233">
-        <v>1871</v>
+        <v>409</v>
       </c>
       <c r="C233">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>297</v>
+      </c>
+      <c r="E233">
+        <v>533</v>
       </c>
       <c r="F233">
+        <v>58</v>
+      </c>
+      <c r="G233">
+        <v>245</v>
+      </c>
+      <c r="H233">
+        <v>128</v>
+      </c>
+      <c r="I233">
         <v>3034981682.37037</v>
       </c>
     </row>
@@ -4504,15 +7576,27 @@
         </is>
       </c>
       <c r="B234">
-        <v>6618</v>
+        <v>1341</v>
       </c>
       <c r="C234">
-        <v>86</v>
+        <v>801</v>
+      </c>
+      <c r="D234">
+        <v>981</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="F234">
+        <v>207</v>
+      </c>
+      <c r="G234">
+        <v>1063</v>
+      </c>
+      <c r="H234">
+        <v>512</v>
+      </c>
+      <c r="I234">
         <v>7233637634.744361</v>
       </c>
     </row>
@@ -4523,18 +7607,27 @@
         </is>
       </c>
       <c r="B235">
-        <v>173881</v>
+        <v>61429</v>
       </c>
       <c r="C235">
-        <v>365</v>
+        <v>13922</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>32189</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>23091</v>
       </c>
       <c r="F235">
+        <v>4865</v>
+      </c>
+      <c r="G235">
+        <v>15762</v>
+      </c>
+      <c r="H235">
+        <v>22623</v>
+      </c>
+      <c r="I235">
         <v>182367246207.9157</v>
       </c>
     </row>
@@ -4545,15 +7638,27 @@
         </is>
       </c>
       <c r="B236">
-        <v>24031</v>
+        <v>3170</v>
       </c>
       <c r="C236">
-        <v>16</v>
+        <v>3121</v>
+      </c>
+      <c r="D236">
+        <v>2635</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>7260</v>
       </c>
       <c r="F236">
+        <v>601</v>
+      </c>
+      <c r="G236">
+        <v>5676</v>
+      </c>
+      <c r="H236">
+        <v>1568</v>
+      </c>
+      <c r="I236">
         <v>22371586545.63779</v>
       </c>
     </row>
@@ -4564,15 +7669,27 @@
         </is>
       </c>
       <c r="B237">
-        <v>38646</v>
+        <v>5270</v>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>4884</v>
+      </c>
+      <c r="D237">
+        <v>3947</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>10269</v>
       </c>
       <c r="F237">
+        <v>1186</v>
+      </c>
+      <c r="G237">
+        <v>10552</v>
+      </c>
+      <c r="H237">
+        <v>2538</v>
+      </c>
+      <c r="I237">
         <v>35892031152.78008</v>
       </c>
     </row>
@@ -4583,15 +7700,27 @@
         </is>
       </c>
       <c r="B238">
-        <v>38164</v>
+        <v>5586</v>
       </c>
       <c r="C238">
-        <v>24</v>
+        <v>4921</v>
+      </c>
+      <c r="D238">
+        <v>4045</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>9507</v>
       </c>
       <c r="F238">
+        <v>1164</v>
+      </c>
+      <c r="G238">
+        <v>9849</v>
+      </c>
+      <c r="H238">
+        <v>3092</v>
+      </c>
+      <c r="I238">
         <v>39397353401.58996</v>
       </c>
     </row>
@@ -4602,15 +7731,27 @@
         </is>
       </c>
       <c r="B239">
-        <v>47334</v>
+        <v>6087</v>
       </c>
       <c r="C239">
-        <v>49</v>
+        <v>6288</v>
+      </c>
+      <c r="D239">
+        <v>4892</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>13279</v>
       </c>
       <c r="F239">
+        <v>1265</v>
+      </c>
+      <c r="G239">
+        <v>12577</v>
+      </c>
+      <c r="H239">
+        <v>2946</v>
+      </c>
+      <c r="I239">
         <v>45770170398.31683</v>
       </c>
     </row>
@@ -4621,18 +7762,27 @@
         </is>
       </c>
       <c r="B240">
-        <v>47009</v>
+        <v>9382</v>
       </c>
       <c r="C240">
-        <v>73</v>
+        <v>5297</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>6173</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>10281</v>
       </c>
       <c r="F240">
+        <v>1539</v>
+      </c>
+      <c r="G240">
+        <v>9305</v>
+      </c>
+      <c r="H240">
+        <v>5032</v>
+      </c>
+      <c r="I240">
         <v>50093952386.83334</v>
       </c>
     </row>
@@ -4643,15 +7793,27 @@
         </is>
       </c>
       <c r="B241">
-        <v>27934</v>
+        <v>2983</v>
       </c>
       <c r="C241">
-        <v>6</v>
+        <v>3383</v>
+      </c>
+      <c r="D241">
+        <v>2871</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>10160</v>
       </c>
       <c r="F241">
+        <v>713</v>
+      </c>
+      <c r="G241">
+        <v>6458</v>
+      </c>
+      <c r="H241">
+        <v>1366</v>
+      </c>
+      <c r="I241">
         <v>31106038805.62094</v>
       </c>
     </row>
@@ -4662,15 +7824,27 @@
         </is>
       </c>
       <c r="B242">
-        <v>34752</v>
+        <v>7574</v>
       </c>
       <c r="C242">
-        <v>54</v>
+        <v>3798</v>
+      </c>
+      <c r="D242">
+        <v>5026</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>7148</v>
       </c>
       <c r="F242">
+        <v>1383</v>
+      </c>
+      <c r="G242">
+        <v>6011</v>
+      </c>
+      <c r="H242">
+        <v>3812</v>
+      </c>
+      <c r="I242">
         <v>37720956326.86025</v>
       </c>
     </row>
@@ -4681,12 +7855,27 @@
         </is>
       </c>
       <c r="B243">
-        <v>29294</v>
+        <v>5046</v>
       </c>
       <c r="C243">
-        <v>59</v>
+        <v>4037</v>
+      </c>
+      <c r="D243">
+        <v>3521</v>
+      </c>
+      <c r="E243">
+        <v>7675</v>
       </c>
       <c r="F243">
+        <v>764</v>
+      </c>
+      <c r="G243">
+        <v>5967</v>
+      </c>
+      <c r="H243">
+        <v>2284</v>
+      </c>
+      <c r="I243">
         <v>33097323323.44062</v>
       </c>
     </row>
@@ -4697,15 +7886,27 @@
         </is>
       </c>
       <c r="B244">
-        <v>115051</v>
+        <v>16451</v>
       </c>
       <c r="C244">
-        <v>75</v>
+        <v>15204</v>
+      </c>
+      <c r="D244">
+        <v>14281</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>34548</v>
       </c>
       <c r="F244">
+        <v>3134</v>
+      </c>
+      <c r="G244">
+        <v>24531</v>
+      </c>
+      <c r="H244">
+        <v>6902</v>
+      </c>
+      <c r="I244">
         <v>128231071589.5962</v>
       </c>
     </row>
@@ -4716,15 +7917,27 @@
         </is>
       </c>
       <c r="B245">
-        <v>34274</v>
+        <v>4520</v>
       </c>
       <c r="C245">
-        <v>20</v>
+        <v>4565</v>
+      </c>
+      <c r="D245">
+        <v>3494</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>9509</v>
       </c>
       <c r="F245">
+        <v>866</v>
+      </c>
+      <c r="G245">
+        <v>9105</v>
+      </c>
+      <c r="H245">
+        <v>2215</v>
+      </c>
+      <c r="I245">
         <v>35760286668.25433</v>
       </c>
     </row>
@@ -4735,15 +7948,27 @@
         </is>
       </c>
       <c r="B246">
-        <v>48817</v>
+        <v>5292</v>
       </c>
       <c r="C246">
-        <v>30</v>
+        <v>6503</v>
+      </c>
+      <c r="D246">
+        <v>4568</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>15015</v>
       </c>
       <c r="F246">
+        <v>1284</v>
+      </c>
+      <c r="G246">
+        <v>13774</v>
+      </c>
+      <c r="H246">
+        <v>2381</v>
+      </c>
+      <c r="I246">
         <v>41256447003.1338</v>
       </c>
     </row>
@@ -4754,15 +7979,27 @@
         </is>
       </c>
       <c r="B247">
-        <v>28703</v>
+        <v>4143</v>
       </c>
       <c r="C247">
-        <v>69</v>
+        <v>3756</v>
+      </c>
+      <c r="D247">
+        <v>3636</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>9996</v>
       </c>
       <c r="F247">
+        <v>877</v>
+      </c>
+      <c r="G247">
+        <v>4566</v>
+      </c>
+      <c r="H247">
+        <v>1729</v>
+      </c>
+      <c r="I247">
         <v>40307459855.92606</v>
       </c>
     </row>
@@ -4773,18 +8010,27 @@
         </is>
       </c>
       <c r="B248">
-        <v>106564</v>
+        <v>26501</v>
       </c>
       <c r="C248">
-        <v>106</v>
+        <v>11942</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>18273</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>28230</v>
       </c>
       <c r="F248">
+        <v>2400</v>
+      </c>
+      <c r="G248">
+        <v>10203</v>
+      </c>
+      <c r="H248">
+        <v>9015</v>
+      </c>
+      <c r="I248">
         <v>134598169598.8071</v>
       </c>
     </row>
@@ -4795,12 +8041,27 @@
         </is>
       </c>
       <c r="B249">
-        <v>26534</v>
+        <v>2956</v>
       </c>
       <c r="C249">
-        <v>20</v>
+        <v>3295</v>
+      </c>
+      <c r="D249">
+        <v>2639</v>
+      </c>
+      <c r="E249">
+        <v>11895</v>
       </c>
       <c r="F249">
+        <v>896</v>
+      </c>
+      <c r="G249">
+        <v>3846</v>
+      </c>
+      <c r="H249">
+        <v>1007</v>
+      </c>
+      <c r="I249">
         <v>36968385127.26666</v>
       </c>
     </row>
@@ -4811,15 +8072,27 @@
         </is>
       </c>
       <c r="B250">
-        <v>27617</v>
+        <v>3438</v>
       </c>
       <c r="C250">
-        <v>12</v>
+        <v>3466</v>
+      </c>
+      <c r="D250">
+        <v>2520</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>7007</v>
       </c>
       <c r="F250">
+        <v>761</v>
+      </c>
+      <c r="G250">
+        <v>8303</v>
+      </c>
+      <c r="H250">
+        <v>2122</v>
+      </c>
+      <c r="I250">
         <v>26099479542.37915</v>
       </c>
     </row>
@@ -4830,15 +8103,27 @@
         </is>
       </c>
       <c r="B251">
-        <v>29926</v>
+        <v>4852</v>
       </c>
       <c r="C251">
-        <v>10</v>
+        <v>3843</v>
+      </c>
+      <c r="D251">
+        <v>3400</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>7209</v>
       </c>
       <c r="F251">
+        <v>929</v>
+      </c>
+      <c r="G251">
+        <v>7427</v>
+      </c>
+      <c r="H251">
+        <v>2266</v>
+      </c>
+      <c r="I251">
         <v>29397444939.31701</v>
       </c>
     </row>
@@ -4849,12 +8134,27 @@
         </is>
       </c>
       <c r="B252">
-        <v>39822</v>
+        <v>7732</v>
       </c>
       <c r="C252">
-        <v>36</v>
+        <v>5239</v>
+      </c>
+      <c r="D252">
+        <v>5484</v>
+      </c>
+      <c r="E252">
+        <v>9945</v>
       </c>
       <c r="F252">
+        <v>1024</v>
+      </c>
+      <c r="G252">
+        <v>7252</v>
+      </c>
+      <c r="H252">
+        <v>3146</v>
+      </c>
+      <c r="I252">
         <v>40285970358.35122</v>
       </c>
     </row>
@@ -4865,15 +8165,27 @@
         </is>
       </c>
       <c r="B253">
-        <v>154435</v>
+        <v>17204</v>
       </c>
       <c r="C253">
-        <v>52</v>
+        <v>20429</v>
+      </c>
+      <c r="D253">
+        <v>16391</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>54705</v>
       </c>
       <c r="F253">
+        <v>3880</v>
+      </c>
+      <c r="G253">
+        <v>34389</v>
+      </c>
+      <c r="H253">
+        <v>7437</v>
+      </c>
+      <c r="I253">
         <v>187034167390.9501</v>
       </c>
     </row>
@@ -4884,18 +8196,27 @@
         </is>
       </c>
       <c r="B254">
-        <v>82205</v>
+        <v>21428</v>
       </c>
       <c r="C254">
-        <v>127</v>
+        <v>10341</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>14030</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>18362</v>
       </c>
       <c r="F254">
+        <v>1805</v>
+      </c>
+      <c r="G254">
+        <v>9129</v>
+      </c>
+      <c r="H254">
+        <v>7110</v>
+      </c>
+      <c r="I254">
         <v>88804766895.75604</v>
       </c>
     </row>
@@ -4906,15 +8227,27 @@
         </is>
       </c>
       <c r="B255">
-        <v>29904</v>
+        <v>4279</v>
       </c>
       <c r="C255">
-        <v>16</v>
+        <v>3926</v>
+      </c>
+      <c r="D255">
+        <v>2884</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>6978</v>
       </c>
       <c r="F255">
+        <v>944</v>
+      </c>
+      <c r="G255">
+        <v>8327</v>
+      </c>
+      <c r="H255">
+        <v>2566</v>
+      </c>
+      <c r="I255">
         <v>32058321740.99435</v>
       </c>
     </row>
@@ -4925,15 +8258,27 @@
         </is>
       </c>
       <c r="B256">
-        <v>70065</v>
+        <v>8536</v>
       </c>
       <c r="C256">
-        <v>18</v>
+        <v>9266</v>
+      </c>
+      <c r="D256">
+        <v>6804</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>22996</v>
       </c>
       <c r="F256">
+        <v>2223</v>
+      </c>
+      <c r="G256">
+        <v>16594</v>
+      </c>
+      <c r="H256">
+        <v>3646</v>
+      </c>
+      <c r="I256">
         <v>77691132094.86818</v>
       </c>
     </row>
@@ -4944,15 +8289,27 @@
         </is>
       </c>
       <c r="B257">
-        <v>61987</v>
+        <v>22022</v>
       </c>
       <c r="C257">
-        <v>227</v>
+        <v>5762</v>
+      </c>
+      <c r="D257">
+        <v>11612</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>10814</v>
       </c>
       <c r="F257">
+        <v>1093</v>
+      </c>
+      <c r="G257">
+        <v>3989</v>
+      </c>
+      <c r="H257">
+        <v>6695</v>
+      </c>
+      <c r="I257">
         <v>73330144380.6026</v>
       </c>
     </row>
@@ -4963,18 +8320,27 @@
         </is>
       </c>
       <c r="B258">
-        <v>65364</v>
+        <v>7553</v>
       </c>
       <c r="C258">
-        <v>16</v>
+        <v>8447</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>6488</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>21917</v>
       </c>
       <c r="F258">
+        <v>1812</v>
+      </c>
+      <c r="G258">
+        <v>15805</v>
+      </c>
+      <c r="H258">
+        <v>3342</v>
+      </c>
+      <c r="I258">
         <v>73825647437.52303</v>
       </c>
     </row>
@@ -4985,15 +8351,27 @@
         </is>
       </c>
       <c r="B259">
-        <v>60483</v>
+        <v>6049</v>
       </c>
       <c r="C259">
-        <v>9</v>
+        <v>7692</v>
+      </c>
+      <c r="D259">
+        <v>5597</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>23328</v>
       </c>
       <c r="F259">
+        <v>1647</v>
+      </c>
+      <c r="G259">
+        <v>13109</v>
+      </c>
+      <c r="H259">
+        <v>3061</v>
+      </c>
+      <c r="I259">
         <v>80689241762.38396</v>
       </c>
     </row>
@@ -5004,15 +8382,27 @@
         </is>
       </c>
       <c r="B260">
-        <v>35569</v>
+        <v>6408</v>
       </c>
       <c r="C260">
-        <v>38</v>
+        <v>4641</v>
+      </c>
+      <c r="D260">
+        <v>4128</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>8657</v>
       </c>
       <c r="F260">
+        <v>1110</v>
+      </c>
+      <c r="G260">
+        <v>7652</v>
+      </c>
+      <c r="H260">
+        <v>2973</v>
+      </c>
+      <c r="I260">
         <v>34298531093.35248</v>
       </c>
     </row>
@@ -5023,15 +8413,27 @@
         </is>
       </c>
       <c r="B261">
-        <v>50022</v>
+        <v>9485</v>
       </c>
       <c r="C261">
-        <v>65</v>
+        <v>5898</v>
+      </c>
+      <c r="D261">
+        <v>6043</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>11433</v>
       </c>
       <c r="F261">
+        <v>1538</v>
+      </c>
+      <c r="G261">
+        <v>11083</v>
+      </c>
+      <c r="H261">
+        <v>4542</v>
+      </c>
+      <c r="I261">
         <v>54458123368.66435</v>
       </c>
     </row>
@@ -5042,15 +8444,27 @@
         </is>
       </c>
       <c r="B262">
-        <v>42963</v>
+        <v>5310</v>
       </c>
       <c r="C262">
-        <v>9</v>
+        <v>5506</v>
+      </c>
+      <c r="D262">
+        <v>4190</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>13199</v>
       </c>
       <c r="F262">
+        <v>1066</v>
+      </c>
+      <c r="G262">
+        <v>11133</v>
+      </c>
+      <c r="H262">
+        <v>2559</v>
+      </c>
+      <c r="I262">
         <v>43262464632.48</v>
       </c>
     </row>
@@ -5061,15 +8475,27 @@
         </is>
       </c>
       <c r="B263">
-        <v>29672</v>
+        <v>5289</v>
       </c>
       <c r="C263">
-        <v>25</v>
+        <v>3714</v>
+      </c>
+      <c r="D263">
+        <v>3385</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>6979</v>
       </c>
       <c r="F263">
+        <v>913</v>
+      </c>
+      <c r="G263">
+        <v>6944</v>
+      </c>
+      <c r="H263">
+        <v>2448</v>
+      </c>
+      <c r="I263">
         <v>31753732439.18408</v>
       </c>
     </row>
@@ -5080,18 +8506,27 @@
         </is>
       </c>
       <c r="B264">
-        <v>38362</v>
+        <v>8279</v>
       </c>
       <c r="C264">
-        <v>54</v>
+        <v>4712</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>5956</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>9682</v>
       </c>
       <c r="F264">
+        <v>974</v>
+      </c>
+      <c r="G264">
+        <v>5764</v>
+      </c>
+      <c r="H264">
+        <v>2995</v>
+      </c>
+      <c r="I264">
         <v>37960091353.46418</v>
       </c>
     </row>
@@ -5102,15 +8537,27 @@
         </is>
       </c>
       <c r="B265">
-        <v>24383</v>
+        <v>3513</v>
       </c>
       <c r="C265">
-        <v>12</v>
+        <v>3200</v>
+      </c>
+      <c r="D265">
+        <v>2498</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>6144</v>
       </c>
       <c r="F265">
+        <v>654</v>
+      </c>
+      <c r="G265">
+        <v>6684</v>
+      </c>
+      <c r="H265">
+        <v>1690</v>
+      </c>
+      <c r="I265">
         <v>23331343432.14286</v>
       </c>
     </row>
@@ -5121,18 +8568,27 @@
         </is>
       </c>
       <c r="B266">
-        <v>28115</v>
+        <v>5950</v>
       </c>
       <c r="C266">
-        <v>32</v>
+        <v>3385</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>5090</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>8870</v>
       </c>
       <c r="F266">
+        <v>714</v>
+      </c>
+      <c r="G266">
+        <v>2448</v>
+      </c>
+      <c r="H266">
+        <v>1658</v>
+      </c>
+      <c r="I266">
         <v>42430139879.03355</v>
       </c>
     </row>
@@ -5143,15 +8599,27 @@
         </is>
       </c>
       <c r="B267">
-        <v>164552</v>
+        <v>17228</v>
       </c>
       <c r="C267">
-        <v>61</v>
+        <v>21508</v>
+      </c>
+      <c r="D267">
+        <v>15961</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>60836</v>
       </c>
       <c r="F267">
+        <v>3710</v>
+      </c>
+      <c r="G267">
+        <v>37967</v>
+      </c>
+      <c r="H267">
+        <v>7342</v>
+      </c>
+      <c r="I267">
         <v>186533464473.7295</v>
       </c>
     </row>
@@ -5162,12 +8630,27 @@
         </is>
       </c>
       <c r="B268">
-        <v>3332</v>
+        <v>404</v>
       </c>
       <c r="C268">
-        <v>5</v>
+        <v>330</v>
+      </c>
+      <c r="D268">
+        <v>400</v>
+      </c>
+      <c r="E268">
+        <v>1220</v>
       </c>
       <c r="F268">
+        <v>89</v>
+      </c>
+      <c r="G268">
+        <v>752</v>
+      </c>
+      <c r="H268">
+        <v>137</v>
+      </c>
+      <c r="I268">
         <v>8817024774.461538</v>
       </c>
     </row>
@@ -5178,12 +8661,27 @@
         </is>
       </c>
       <c r="B269">
-        <v>3393</v>
+        <v>563</v>
       </c>
       <c r="C269">
-        <v>38</v>
+        <v>453</v>
+      </c>
+      <c r="D269">
+        <v>397</v>
+      </c>
+      <c r="E269">
+        <v>944</v>
       </c>
       <c r="F269">
+        <v>103</v>
+      </c>
+      <c r="G269">
+        <v>721</v>
+      </c>
+      <c r="H269">
+        <v>212</v>
+      </c>
+      <c r="I269">
         <v>6933981275.5</v>
       </c>
     </row>
@@ -5194,18 +8692,27 @@
         </is>
       </c>
       <c r="B270">
-        <v>32435</v>
+        <v>3650</v>
       </c>
       <c r="C270">
-        <v>22</v>
+        <v>3761</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>3467</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>13025</v>
       </c>
       <c r="F270">
+        <v>930</v>
+      </c>
+      <c r="G270">
+        <v>6293</v>
+      </c>
+      <c r="H270">
+        <v>1309</v>
+      </c>
+      <c r="I270">
         <v>43951136522.87894</v>
       </c>
     </row>
@@ -5216,15 +8723,27 @@
         </is>
       </c>
       <c r="B271">
-        <v>23530</v>
+        <v>2699</v>
       </c>
       <c r="C271">
-        <v>18</v>
+        <v>2665</v>
+      </c>
+      <c r="D271">
+        <v>2492</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>9655</v>
       </c>
       <c r="F271">
+        <v>628</v>
+      </c>
+      <c r="G271">
+        <v>4389</v>
+      </c>
+      <c r="H271">
+        <v>1002</v>
+      </c>
+      <c r="I271">
         <v>38020316317.02203</v>
       </c>
     </row>
@@ -5235,12 +8754,27 @@
         </is>
       </c>
       <c r="B272">
-        <v>3922</v>
+        <v>553</v>
       </c>
       <c r="C272">
-        <v>21</v>
+        <v>445</v>
+      </c>
+      <c r="D272">
+        <v>438</v>
+      </c>
+      <c r="E272">
+        <v>1392</v>
       </c>
       <c r="F272">
+        <v>86</v>
+      </c>
+      <c r="G272">
+        <v>826</v>
+      </c>
+      <c r="H272">
+        <v>182</v>
+      </c>
+      <c r="I272">
         <v>6325126321.777778</v>
       </c>
     </row>
@@ -5251,15 +8785,27 @@
         </is>
       </c>
       <c r="B273">
-        <v>84941</v>
+        <v>9706</v>
       </c>
       <c r="C273">
-        <v>44</v>
+        <v>11102</v>
+      </c>
+      <c r="D273">
+        <v>8383</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>29242</v>
       </c>
       <c r="F273">
+        <v>2091</v>
+      </c>
+      <c r="G273">
+        <v>19981</v>
+      </c>
+      <c r="H273">
+        <v>4436</v>
+      </c>
+      <c r="I273">
         <v>86474375157.36678</v>
       </c>
     </row>
@@ -5270,15 +8816,27 @@
         </is>
       </c>
       <c r="B274">
-        <v>24767</v>
+        <v>3301</v>
       </c>
       <c r="C274">
-        <v>38</v>
+        <v>3019</v>
+      </c>
+      <c r="D274">
+        <v>2857</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>8573</v>
       </c>
       <c r="F274">
+        <v>645</v>
+      </c>
+      <c r="G274">
+        <v>5193</v>
+      </c>
+      <c r="H274">
+        <v>1179</v>
+      </c>
+      <c r="I274">
         <v>30431412041.51724</v>
       </c>
     </row>
@@ -5289,12 +8847,27 @@
         </is>
       </c>
       <c r="B275">
-        <v>3346</v>
+        <v>373</v>
       </c>
       <c r="C275">
-        <v>6</v>
+        <v>408</v>
+      </c>
+      <c r="D275">
+        <v>354</v>
+      </c>
+      <c r="E275">
+        <v>1194</v>
       </c>
       <c r="F275">
+        <v>75</v>
+      </c>
+      <c r="G275">
+        <v>792</v>
+      </c>
+      <c r="H275">
+        <v>150</v>
+      </c>
+      <c r="I275">
         <v>7803125477.446809</v>
       </c>
     </row>
@@ -5305,15 +8878,27 @@
         </is>
       </c>
       <c r="B276">
-        <v>13765</v>
+        <v>1839</v>
       </c>
       <c r="C276">
-        <v>22</v>
+        <v>1716</v>
+      </c>
+      <c r="D276">
+        <v>1449</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>4612</v>
       </c>
       <c r="F276">
+        <v>387</v>
+      </c>
+      <c r="G276">
+        <v>3009</v>
+      </c>
+      <c r="H276">
+        <v>753</v>
+      </c>
+      <c r="I276">
         <v>24020488982.29907</v>
       </c>
     </row>
@@ -5324,15 +8909,27 @@
         </is>
       </c>
       <c r="B277">
-        <v>27082</v>
+        <v>4395</v>
       </c>
       <c r="C277">
-        <v>47</v>
+        <v>4056</v>
+      </c>
+      <c r="D277">
+        <v>2928</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>8271</v>
       </c>
       <c r="F277">
+        <v>672</v>
+      </c>
+      <c r="G277">
+        <v>4962</v>
+      </c>
+      <c r="H277">
+        <v>1798</v>
+      </c>
+      <c r="I277">
         <v>36054817558.06451</v>
       </c>
     </row>
@@ -5343,12 +8940,27 @@
         </is>
       </c>
       <c r="B278">
-        <v>820</v>
+        <v>169</v>
       </c>
       <c r="C278">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="D278">
+        <v>92</v>
+      </c>
+      <c r="E278">
+        <v>254</v>
       </c>
       <c r="F278">
+        <v>14</v>
+      </c>
+      <c r="G278">
+        <v>148</v>
+      </c>
+      <c r="H278">
+        <v>51</v>
+      </c>
+      <c r="I278">
         <v>2251756128.785047</v>
       </c>
     </row>
@@ -5359,12 +8971,27 @@
         </is>
       </c>
       <c r="B279">
-        <v>6196</v>
+        <v>872</v>
       </c>
       <c r="C279">
-        <v>13</v>
+        <v>951</v>
+      </c>
+      <c r="D279">
+        <v>622</v>
+      </c>
+      <c r="E279">
+        <v>1837</v>
       </c>
       <c r="F279">
+        <v>141</v>
+      </c>
+      <c r="G279">
+        <v>1433</v>
+      </c>
+      <c r="H279">
+        <v>340</v>
+      </c>
+      <c r="I279">
         <v>8766848005.464912</v>
       </c>
     </row>
@@ -5375,12 +9002,27 @@
         </is>
       </c>
       <c r="B280">
-        <v>2053</v>
+        <v>295</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="D280">
+        <v>211</v>
+      </c>
+      <c r="E280">
+        <v>705</v>
       </c>
       <c r="F280">
+        <v>51</v>
+      </c>
+      <c r="G280">
+        <v>429</v>
+      </c>
+      <c r="H280">
+        <v>100</v>
+      </c>
+      <c r="I280">
         <v>3451350897.692308</v>
       </c>
     </row>
@@ -5391,15 +9033,27 @@
         </is>
       </c>
       <c r="B281">
-        <v>17409</v>
+        <v>2205</v>
       </c>
       <c r="C281">
-        <v>14</v>
+        <v>2346</v>
+      </c>
+      <c r="D281">
+        <v>1754</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>5679</v>
       </c>
       <c r="F281">
+        <v>460</v>
+      </c>
+      <c r="G281">
+        <v>4056</v>
+      </c>
+      <c r="H281">
+        <v>909</v>
+      </c>
+      <c r="I281">
         <v>29299162746.23809</v>
       </c>
     </row>
@@ -5410,12 +9064,27 @@
         </is>
       </c>
       <c r="B282">
-        <v>9111</v>
+        <v>1230</v>
       </c>
       <c r="C282">
-        <v>7</v>
+        <v>1228</v>
+      </c>
+      <c r="D282">
+        <v>951</v>
+      </c>
+      <c r="E282">
+        <v>3041</v>
       </c>
       <c r="F282">
+        <v>246</v>
+      </c>
+      <c r="G282">
+        <v>1954</v>
+      </c>
+      <c r="H282">
+        <v>461</v>
+      </c>
+      <c r="I282">
         <v>10693979407.66087</v>
       </c>
     </row>
@@ -5426,18 +9095,27 @@
         </is>
       </c>
       <c r="B283">
-        <v>8052</v>
+        <v>1071</v>
       </c>
       <c r="C283">
-        <v>6</v>
+        <v>1019</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>843</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>2741</v>
       </c>
       <c r="F283">
+        <v>186</v>
+      </c>
+      <c r="G283">
+        <v>1834</v>
+      </c>
+      <c r="H283">
+        <v>358</v>
+      </c>
+      <c r="I283">
         <v>8304441407.511628</v>
       </c>
     </row>
@@ -5448,15 +9126,27 @@
         </is>
       </c>
       <c r="B284">
-        <v>16475</v>
+        <v>1929</v>
       </c>
       <c r="C284">
-        <v>18</v>
+        <v>1875</v>
+      </c>
+      <c r="D284">
+        <v>1872</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>5912</v>
       </c>
       <c r="F284">
+        <v>398</v>
+      </c>
+      <c r="G284">
+        <v>3768</v>
+      </c>
+      <c r="H284">
+        <v>721</v>
+      </c>
+      <c r="I284">
         <v>17555873229.5082</v>
       </c>
     </row>
@@ -5467,12 +9157,27 @@
         </is>
       </c>
       <c r="B285">
-        <v>24532</v>
+        <v>2913</v>
       </c>
       <c r="C285">
-        <v>22</v>
+        <v>3150</v>
+      </c>
+      <c r="D285">
+        <v>2571</v>
+      </c>
+      <c r="E285">
+        <v>8549</v>
       </c>
       <c r="F285">
+        <v>627</v>
+      </c>
+      <c r="G285">
+        <v>5606</v>
+      </c>
+      <c r="H285">
+        <v>1116</v>
+      </c>
+      <c r="I285">
         <v>31711490484.19005</v>
       </c>
     </row>
@@ -5483,18 +9188,27 @@
         </is>
       </c>
       <c r="B286">
-        <v>51378</v>
+        <v>9843</v>
       </c>
       <c r="C286">
-        <v>230</v>
+        <v>6339</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>6421</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>13611</v>
       </c>
       <c r="F286">
+        <v>1711</v>
+      </c>
+      <c r="G286">
+        <v>9056</v>
+      </c>
+      <c r="H286">
+        <v>4397</v>
+      </c>
+      <c r="I286">
         <v>51277944138.89837</v>
       </c>
     </row>
@@ -5505,12 +9219,27 @@
         </is>
       </c>
       <c r="B287">
-        <v>1190</v>
+        <v>251</v>
       </c>
       <c r="C287">
-        <v>10</v>
+        <v>141</v>
+      </c>
+      <c r="D287">
+        <v>160</v>
+      </c>
+      <c r="E287">
+        <v>319</v>
       </c>
       <c r="F287">
+        <v>31</v>
+      </c>
+      <c r="G287">
+        <v>225</v>
+      </c>
+      <c r="H287">
+        <v>63</v>
+      </c>
+      <c r="I287">
         <v>1179821616.809524</v>
       </c>
     </row>
@@ -5521,15 +9250,27 @@
         </is>
       </c>
       <c r="B288">
-        <v>3901</v>
+        <v>725</v>
       </c>
       <c r="C288">
-        <v>14</v>
+        <v>582</v>
+      </c>
+      <c r="D288">
+        <v>447</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>1079</v>
       </c>
       <c r="F288">
+        <v>93</v>
+      </c>
+      <c r="G288">
+        <v>709</v>
+      </c>
+      <c r="H288">
+        <v>266</v>
+      </c>
+      <c r="I288">
         <v>4477574931.226891</v>
       </c>
     </row>
@@ -5540,15 +9281,27 @@
         </is>
       </c>
       <c r="B289">
-        <v>3201</v>
+        <v>537</v>
       </c>
       <c r="C289">
-        <v>13</v>
+        <v>443</v>
+      </c>
+      <c r="D289">
+        <v>412</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>940</v>
       </c>
       <c r="F289">
+        <v>77</v>
+      </c>
+      <c r="G289">
+        <v>611</v>
+      </c>
+      <c r="H289">
+        <v>181</v>
+      </c>
+      <c r="I289">
         <v>4159328180.553846</v>
       </c>
     </row>
@@ -5559,12 +9312,27 @@
         </is>
       </c>
       <c r="B290">
-        <v>1365</v>
+        <v>221</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="D290">
+        <v>151</v>
+      </c>
+      <c r="E290">
+        <v>385</v>
       </c>
       <c r="F290">
+        <v>25</v>
+      </c>
+      <c r="G290">
+        <v>311</v>
+      </c>
+      <c r="H290">
+        <v>93</v>
+      </c>
+      <c r="I290">
         <v>2235081533.4375</v>
       </c>
     </row>
@@ -5575,15 +9343,27 @@
         </is>
       </c>
       <c r="B291">
-        <v>3149</v>
+        <v>510</v>
       </c>
       <c r="C291">
-        <v>9</v>
+        <v>478</v>
+      </c>
+      <c r="D291">
+        <v>308</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>979</v>
       </c>
       <c r="F291">
+        <v>79</v>
+      </c>
+      <c r="G291">
+        <v>605</v>
+      </c>
+      <c r="H291">
+        <v>190</v>
+      </c>
+      <c r="I291">
         <v>5342147078.986301</v>
       </c>
     </row>
@@ -5594,18 +9374,27 @@
         </is>
       </c>
       <c r="B292">
-        <v>3980</v>
+        <v>702</v>
       </c>
       <c r="C292">
-        <v>18</v>
+        <v>576</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>442</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>1061</v>
       </c>
       <c r="F292">
+        <v>107</v>
+      </c>
+      <c r="G292">
+        <v>842</v>
+      </c>
+      <c r="H292">
+        <v>250</v>
+      </c>
+      <c r="I292">
         <v>4508111622</v>
       </c>
     </row>
@@ -5616,18 +9405,27 @@
         </is>
       </c>
       <c r="B293">
-        <v>5072</v>
+        <v>1028</v>
       </c>
       <c r="C293">
-        <v>30</v>
+        <v>705</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>643</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>1294</v>
       </c>
       <c r="F293">
+        <v>152</v>
+      </c>
+      <c r="G293">
+        <v>923</v>
+      </c>
+      <c r="H293">
+        <v>327</v>
+      </c>
+      <c r="I293">
         <v>9938682027.545454</v>
       </c>
     </row>
@@ -5638,15 +9436,27 @@
         </is>
       </c>
       <c r="B294">
-        <v>8974</v>
+        <v>1655</v>
       </c>
       <c r="C294">
-        <v>25</v>
+        <v>1220</v>
+      </c>
+      <c r="D294">
+        <v>1167</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>2435</v>
       </c>
       <c r="F294">
+        <v>166</v>
+      </c>
+      <c r="G294">
+        <v>1712</v>
+      </c>
+      <c r="H294">
+        <v>619</v>
+      </c>
+      <c r="I294">
         <v>9405987849.61725</v>
       </c>
     </row>
@@ -5657,18 +9467,27 @@
         </is>
       </c>
       <c r="B295">
-        <v>2750</v>
+        <v>479</v>
       </c>
       <c r="C295">
-        <v>10</v>
+        <v>364</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>833</v>
       </c>
       <c r="F295">
+        <v>57</v>
+      </c>
+      <c r="G295">
+        <v>498</v>
+      </c>
+      <c r="H295">
+        <v>159</v>
+      </c>
+      <c r="I295">
         <v>3627119212.213115</v>
       </c>
     </row>
@@ -5679,15 +9498,27 @@
         </is>
       </c>
       <c r="B296">
-        <v>871</v>
+        <v>229</v>
       </c>
       <c r="C296">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="E296">
+        <v>191</v>
       </c>
       <c r="F296">
+        <v>17</v>
+      </c>
+      <c r="G296">
+        <v>114</v>
+      </c>
+      <c r="H296">
+        <v>71</v>
+      </c>
+      <c r="I296">
         <v>2445838258.942529</v>
       </c>
     </row>
@@ -5698,15 +9529,27 @@
         </is>
       </c>
       <c r="B297">
-        <v>6010</v>
+        <v>1280</v>
       </c>
       <c r="C297">
-        <v>12</v>
+        <v>887</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>754</v>
+      </c>
+      <c r="E297">
+        <v>1429</v>
       </c>
       <c r="F297">
+        <v>111</v>
+      </c>
+      <c r="G297">
+        <v>1110</v>
+      </c>
+      <c r="H297">
+        <v>439</v>
+      </c>
+      <c r="I297">
         <v>8405637271.029851</v>
       </c>
     </row>
@@ -5717,18 +9560,27 @@
         </is>
       </c>
       <c r="B298">
-        <v>61431</v>
+        <v>10607</v>
       </c>
       <c r="C298">
-        <v>215</v>
+        <v>9567</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>5831</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>15062</v>
       </c>
       <c r="F298">
+        <v>1946</v>
+      </c>
+      <c r="G298">
+        <v>14221</v>
+      </c>
+      <c r="H298">
+        <v>4197</v>
+      </c>
+      <c r="I298">
         <v>68625788545.24522</v>
       </c>
     </row>
@@ -5739,15 +9591,27 @@
         </is>
       </c>
       <c r="B299">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="C299">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E299">
+        <v>56</v>
       </c>
       <c r="F299">
+        <v>6</v>
+      </c>
+      <c r="G299">
+        <v>32</v>
+      </c>
+      <c r="H299">
+        <v>33</v>
+      </c>
+      <c r="I299">
         <v>784324029.5454546</v>
       </c>
     </row>
@@ -5758,18 +9622,27 @@
         </is>
       </c>
       <c r="B300">
-        <v>56234</v>
+        <v>10059</v>
       </c>
       <c r="C300">
-        <v>106</v>
+        <v>8248</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>6886</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>16370</v>
       </c>
       <c r="F300">
+        <v>1330</v>
+      </c>
+      <c r="G300">
+        <v>9746</v>
+      </c>
+      <c r="H300">
+        <v>3595</v>
+      </c>
+      <c r="I300">
         <v>50965643905.92441</v>
       </c>
     </row>
@@ -5780,15 +9653,27 @@
         </is>
       </c>
       <c r="B301">
-        <v>4538</v>
+        <v>837</v>
       </c>
       <c r="C301">
-        <v>7</v>
+        <v>700</v>
+      </c>
+      <c r="D301">
+        <v>528</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>1236</v>
       </c>
       <c r="F301">
+        <v>102</v>
+      </c>
+      <c r="G301">
+        <v>853</v>
+      </c>
+      <c r="H301">
+        <v>282</v>
+      </c>
+      <c r="I301">
         <v>4829367277.703226</v>
       </c>
     </row>
@@ -5799,12 +9684,27 @@
         </is>
       </c>
       <c r="B302">
-        <v>8961</v>
+        <v>1393</v>
       </c>
       <c r="C302">
-        <v>8</v>
+        <v>1398</v>
+      </c>
+      <c r="D302">
+        <v>1024</v>
+      </c>
+      <c r="E302">
+        <v>2973</v>
       </c>
       <c r="F302">
+        <v>186</v>
+      </c>
+      <c r="G302">
+        <v>1545</v>
+      </c>
+      <c r="H302">
+        <v>442</v>
+      </c>
+      <c r="I302">
         <v>8022762559.695035</v>
       </c>
     </row>
@@ -5815,15 +9715,27 @@
         </is>
       </c>
       <c r="B303">
-        <v>1617</v>
+        <v>281</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>266</v>
+      </c>
+      <c r="D303">
+        <v>201</v>
       </c>
       <c r="E303">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="F303">
+        <v>41</v>
+      </c>
+      <c r="G303">
+        <v>291</v>
+      </c>
+      <c r="H303">
+        <v>90</v>
+      </c>
+      <c r="I303">
         <v>2596282563.228916</v>
       </c>
     </row>
@@ -5834,12 +9746,27 @@
         </is>
       </c>
       <c r="B304">
-        <v>1345</v>
+        <v>216</v>
       </c>
       <c r="C304">
-        <v>3</v>
+        <v>226</v>
+      </c>
+      <c r="D304">
+        <v>154</v>
+      </c>
+      <c r="E304">
+        <v>393</v>
       </c>
       <c r="F304">
+        <v>20</v>
+      </c>
+      <c r="G304">
+        <v>278</v>
+      </c>
+      <c r="H304">
+        <v>58</v>
+      </c>
+      <c r="I304">
         <v>2213691761.311475</v>
       </c>
     </row>
@@ -5850,12 +9777,27 @@
         </is>
       </c>
       <c r="B305">
-        <v>1890</v>
+        <v>351</v>
       </c>
       <c r="C305">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="D305">
+        <v>259</v>
+      </c>
+      <c r="E305">
+        <v>561</v>
       </c>
       <c r="F305">
+        <v>37</v>
+      </c>
+      <c r="G305">
+        <v>316</v>
+      </c>
+      <c r="H305">
+        <v>106</v>
+      </c>
+      <c r="I305">
         <v>1901248803.972973</v>
       </c>
     </row>
@@ -5866,12 +9808,27 @@
         </is>
       </c>
       <c r="B306">
-        <v>3653</v>
+        <v>735</v>
       </c>
       <c r="C306">
-        <v>4</v>
+        <v>504</v>
+      </c>
+      <c r="D306">
+        <v>481</v>
+      </c>
+      <c r="E306">
+        <v>1054</v>
       </c>
       <c r="F306">
+        <v>90</v>
+      </c>
+      <c r="G306">
+        <v>562</v>
+      </c>
+      <c r="H306">
+        <v>227</v>
+      </c>
+      <c r="I306">
         <v>4477425885.569106</v>
       </c>
     </row>
@@ -5882,12 +9839,27 @@
         </is>
       </c>
       <c r="B307">
-        <v>2356</v>
+        <v>426</v>
       </c>
       <c r="C307">
-        <v>2</v>
+        <v>367</v>
+      </c>
+      <c r="D307">
+        <v>305</v>
+      </c>
+      <c r="E307">
+        <v>736</v>
       </c>
       <c r="F307">
+        <v>46</v>
+      </c>
+      <c r="G307">
+        <v>360</v>
+      </c>
+      <c r="H307">
+        <v>116</v>
+      </c>
+      <c r="I307">
         <v>3269367251.80315</v>
       </c>
     </row>
@@ -5898,12 +9870,27 @@
         </is>
       </c>
       <c r="B308">
-        <v>4650</v>
+        <v>927</v>
       </c>
       <c r="C308">
-        <v>13</v>
+        <v>623</v>
+      </c>
+      <c r="D308">
+        <v>659</v>
+      </c>
+      <c r="E308">
+        <v>1418</v>
       </c>
       <c r="F308">
+        <v>76</v>
+      </c>
+      <c r="G308">
+        <v>719</v>
+      </c>
+      <c r="H308">
+        <v>228</v>
+      </c>
+      <c r="I308">
         <v>4599738090.83871</v>
       </c>
     </row>
@@ -5914,15 +9901,27 @@
         </is>
       </c>
       <c r="B309">
-        <v>3453</v>
+        <v>837</v>
       </c>
       <c r="C309">
-        <v>11</v>
+        <v>536</v>
+      </c>
+      <c r="D309">
+        <v>410</v>
       </c>
       <c r="E309">
-        <v>1</v>
+        <v>907</v>
       </c>
       <c r="F309">
+        <v>43</v>
+      </c>
+      <c r="G309">
+        <v>536</v>
+      </c>
+      <c r="H309">
+        <v>184</v>
+      </c>
+      <c r="I309">
         <v>2932397811.111111</v>
       </c>
     </row>
@@ -5933,12 +9932,27 @@
         </is>
       </c>
       <c r="B310">
-        <v>563</v>
+        <v>151</v>
       </c>
       <c r="C310">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="D310">
+        <v>94</v>
+      </c>
+      <c r="E310">
+        <v>122</v>
       </c>
       <c r="F310">
+        <v>11</v>
+      </c>
+      <c r="G310">
+        <v>80</v>
+      </c>
+      <c r="H310">
+        <v>31</v>
+      </c>
+      <c r="I310">
         <v>1300549630.196078</v>
       </c>
     </row>
@@ -5949,15 +9963,27 @@
         </is>
       </c>
       <c r="B311">
-        <v>3676</v>
+        <v>574</v>
       </c>
       <c r="C311">
-        <v>10</v>
+        <v>490</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>438</v>
+      </c>
+      <c r="E311">
+        <v>1068</v>
       </c>
       <c r="F311">
+        <v>91</v>
+      </c>
+      <c r="G311">
+        <v>786</v>
+      </c>
+      <c r="H311">
+        <v>229</v>
+      </c>
+      <c r="I311">
         <v>4748629722.666667</v>
       </c>
     </row>
@@ -5968,12 +9994,27 @@
         </is>
       </c>
       <c r="B312">
-        <v>526</v>
+        <v>116</v>
       </c>
       <c r="C312">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="D312">
+        <v>65</v>
+      </c>
+      <c r="E312">
+        <v>128</v>
       </c>
       <c r="F312">
+        <v>11</v>
+      </c>
+      <c r="G312">
+        <v>97</v>
+      </c>
+      <c r="H312">
+        <v>28</v>
+      </c>
+      <c r="I312">
         <v>1571687051.734694</v>
       </c>
     </row>
@@ -5984,12 +10025,27 @@
         </is>
       </c>
       <c r="B313">
-        <v>638</v>
+        <v>149</v>
       </c>
       <c r="C313">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="D313">
+        <v>80</v>
+      </c>
+      <c r="E313">
+        <v>164</v>
       </c>
       <c r="F313">
+        <v>15</v>
+      </c>
+      <c r="G313">
+        <v>106</v>
+      </c>
+      <c r="H313">
+        <v>36</v>
+      </c>
+      <c r="I313">
         <v>957181341.6</v>
       </c>
     </row>
@@ -6000,12 +10056,27 @@
         </is>
       </c>
       <c r="B314">
-        <v>547</v>
+        <v>120</v>
       </c>
       <c r="C314">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="D314">
+        <v>97</v>
+      </c>
+      <c r="E314">
+        <v>130</v>
       </c>
       <c r="F314">
+        <v>12</v>
+      </c>
+      <c r="G314">
+        <v>89</v>
+      </c>
+      <c r="H314">
+        <v>32</v>
+      </c>
+      <c r="I314">
         <v>1650320431.95</v>
       </c>
     </row>
@@ -6016,12 +10087,27 @@
         </is>
       </c>
       <c r="B315">
-        <v>623</v>
+        <v>122</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="D315">
+        <v>86</v>
+      </c>
+      <c r="E315">
+        <v>178</v>
       </c>
       <c r="F315">
+        <v>10</v>
+      </c>
+      <c r="G315">
+        <v>95</v>
+      </c>
+      <c r="H315">
+        <v>32</v>
+      </c>
+      <c r="I315">
         <v>1181211461.654867</v>
       </c>
     </row>
@@ -6032,15 +10118,27 @@
         </is>
       </c>
       <c r="B316">
-        <v>11416</v>
+        <v>2022</v>
       </c>
       <c r="C316">
-        <v>15</v>
+        <v>1821</v>
+      </c>
+      <c r="D316">
+        <v>1470</v>
       </c>
       <c r="E316">
-        <v>1</v>
+        <v>3257</v>
       </c>
       <c r="F316">
+        <v>193</v>
+      </c>
+      <c r="G316">
+        <v>1963</v>
+      </c>
+      <c r="H316">
+        <v>690</v>
+      </c>
+      <c r="I316">
         <v>13391296803.42289</v>
       </c>
     </row>
@@ -6051,12 +10149,27 @@
         </is>
       </c>
       <c r="B317">
-        <v>2908</v>
+        <v>431</v>
       </c>
       <c r="C317">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D317">
+        <v>332</v>
+      </c>
+      <c r="E317">
+        <v>969</v>
       </c>
       <c r="F317">
+        <v>48</v>
+      </c>
+      <c r="G317">
+        <v>530</v>
+      </c>
+      <c r="H317">
+        <v>130</v>
+      </c>
+      <c r="I317">
         <v>5741254096.505376</v>
       </c>
     </row>
@@ -6067,15 +10180,27 @@
         </is>
       </c>
       <c r="B318">
-        <v>426</v>
+        <v>96</v>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="D318">
+        <v>73</v>
       </c>
       <c r="E318">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F318">
+        <v>8</v>
+      </c>
+      <c r="G318">
+        <v>68</v>
+      </c>
+      <c r="H318">
+        <v>22</v>
+      </c>
+      <c r="I318">
         <v>2639471976.48</v>
       </c>
     </row>
@@ -6086,12 +10211,27 @@
         </is>
       </c>
       <c r="B319">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="D319">
+        <v>91</v>
+      </c>
+      <c r="E319">
+        <v>146</v>
       </c>
       <c r="F319">
+        <v>21</v>
+      </c>
+      <c r="G319">
+        <v>89</v>
+      </c>
+      <c r="H319">
+        <v>48</v>
+      </c>
+      <c r="I319">
         <v>1118324608.72441</v>
       </c>
     </row>
@@ -6102,12 +10242,27 @@
         </is>
       </c>
       <c r="B320">
-        <v>1640</v>
+        <v>274</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="D320">
+        <v>230</v>
+      </c>
+      <c r="E320">
+        <v>523</v>
       </c>
       <c r="F320">
+        <v>26</v>
+      </c>
+      <c r="G320">
+        <v>278</v>
+      </c>
+      <c r="H320">
+        <v>96</v>
+      </c>
+      <c r="I320">
         <v>3088800683.385135</v>
       </c>
     </row>
